--- a/Excel_database/demo.xlsx
+++ b/Excel_database/demo.xlsx
@@ -1,35 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Patient1_Healthy" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>Director's Hand</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - OneFootStanding_R_EO</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Standing_EO</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Reach_L</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Reach_C</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Reach_Ground</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - OneFootStanding_R_EC</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Standing_EC</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - OneFootStanding_L_EC</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Arms_extension</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - OneFootStanding_L_EO</t>
+  </si>
+  <si>
+    <t>Max values of each muscle - Reach_R</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCC2BC"/>
+        <bgColor rgb="00BCC2BC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,16 +117,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -339,13 +418,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Excel_database/demo.xlsx
+++ b/Excel_database/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Gender</t>
   </si>
@@ -41,34 +41,106 @@
     <t>Max values of each muscle - OneFootStanding_R_EO</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - OneFootStanding_R_EO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Rectus_A</t>
+  </si>
+  <si>
+    <t>Obliques</t>
+  </si>
+  <si>
+    <t>Ilicostalis</t>
+  </si>
+  <si>
+    <t>Multifidus</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Standing_EO</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Reach_L</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Reach_L</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Reach_C</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Reach_C</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Reach_Ground</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Reach_Ground</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - OneFootStanding_R_EC</t>
+  </si>
+  <si>
     <t>Max values of each muscle - OneFootStanding_R_EC</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - OneFootStanding_L_EO</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Standing_EC</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Standing_EO</t>
+  </si>
+  <si>
     <t>Max values of each muscle - OneFootStanding_L_EC</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Arms_extension</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Arms_extension</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Reach_R</t>
+  </si>
+  <si>
     <t>Max values of each muscle - OneFootStanding_L_EO</t>
   </si>
   <si>
+    <t>Coherency values between each muscle and each COP direction - Standing_EC</t>
+  </si>
+  <si>
     <t>Max values of each muscle - Reach_R</t>
+  </si>
+  <si>
+    <t>Coherency values between each muscle and each COP direction - OneFootStanding_L_EC</t>
+  </si>
+  <si>
+    <t>Rectus_A_L</t>
+  </si>
+  <si>
+    <t>Obliques_L</t>
+  </si>
+  <si>
+    <t>Ilicostalis_L</t>
+  </si>
+  <si>
+    <t>Multifidus_L</t>
+  </si>
+  <si>
+    <t>Rectus_A_R</t>
+  </si>
+  <si>
+    <t>Obliques_R</t>
+  </si>
+  <si>
+    <t>Ilicostalis_R</t>
   </si>
 </sst>
 </file>
@@ -119,12 +191,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -441,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +522,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,7 +538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -473,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -481,59 +554,1786 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
+      <c r="B8" t="n">
+        <v>17.41996466931224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.0268944061821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="B84" t="s">
+      <c r="B9" t="n">
+        <v>10.29575349908704</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.71073734256192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="B97" t="s">
+      <c r="B10" t="n">
+        <v>5.694666126403339</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.796723115872617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="B110" t="s">
+      <c r="B11" t="n">
+        <v>9.228280823019706</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.9078194881101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="B123" t="s">
+      <c r="H19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="B136" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14.26888758469593</v>
+      </c>
+      <c r="C21" t="n">
+        <v>18.22935484527192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.657020114435277</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.21147986333975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.180747847749674</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.623073289705866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.243368783400146</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.794981905143698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23.7262852469668</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20.68254977678546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15.18220952278864</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11.43546246541196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="n">
+        <v>25.27733635107262</v>
+      </c>
+      <c r="C36" t="n">
+        <v>44.8124438531143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>30.66635990255311</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13.93411857197144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="n">
+        <v>72.78440460964059</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.64906980523409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32.04875342133363</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42.81045768915942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="n">
+        <v>35.49973724877191</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25.96225026574039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="n">
+        <v>38.40440842378656</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.550835758653387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="n">
+        <v>54.98881474458568</v>
+      </c>
+      <c r="C60" t="n">
+        <v>41.28435878444369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28.54624064190835</v>
+      </c>
+      <c r="C61" t="n">
+        <v>68.1896834993688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="n">
+        <v>45.11359095138481</v>
+      </c>
+      <c r="C62" t="n">
+        <v>49.90337008990986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37.77236972361787</v>
+      </c>
+      <c r="C63" t="n">
+        <v>13.95442054458875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="n">
+        <v>103.6475520350645</v>
+      </c>
+      <c r="C73" t="n">
+        <v>99.93157934047532</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="n">
+        <v>75.05557351912503</v>
+      </c>
+      <c r="C74" t="n">
+        <v>75.98580877794137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="n">
+        <v>39.10631185332947</v>
+      </c>
+      <c r="C75" t="n">
+        <v>35.38711745752647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="n">
+        <v>40.43248396355817</v>
+      </c>
+      <c r="C76" t="n">
+        <v>31.0311803319632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="B84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.50763803760866</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13.82814979733974</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7.908427384797862</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.96726107835687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.141930411757003</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.702055672568854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.289029454148785</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.226667715759254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98.41832782776278</v>
+      </c>
+      <c r="C99" t="n">
+        <v>61.87908589945938</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="n">
+        <v>87.16000425525429</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124.0193600721341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="n">
+        <v>38.22958402277407</v>
+      </c>
+      <c r="C101" t="n">
+        <v>24.85413621829502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="n">
+        <v>34.85038596072853</v>
+      </c>
+      <c r="C102" t="n">
+        <v>21.11615818206215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="n">
+        <v>19.17387258787618</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25.26013744579906</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="n">
+        <v>8.289497762874621</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8.993540530517299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.08060964868486</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.70608048994364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.318440735500697</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.649424098669898</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20.2884787935461</v>
+      </c>
+      <c r="C125" t="n">
+        <v>24.47892698033158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="n">
+        <v>10.12656994511079</v>
+      </c>
+      <c r="C126" t="n">
+        <v>26.06014715496212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.592324004091731</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.000162453137578</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="n">
+        <v>10.71007610269816</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.329381731286911</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="B136" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="n">
+        <v>19.64829177267006</v>
+      </c>
+      <c r="C138" t="n">
+        <v>25.53044592852795</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="n">
+        <v>19.27120949931678</v>
+      </c>
+      <c r="C139" t="n">
+        <v>41.42957303900362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="n">
+        <v>36.96161882752311</v>
+      </c>
+      <c r="C140" t="n">
+        <v>31.08982276658672</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="n">
+        <v>37.7202162629527</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.677590635557937</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>35</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>36</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>38</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>38</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.09061522108625178</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.1057006761513258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.5218907250199893</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4908267670774381</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>38</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>38</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.2593253991449762</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.3681029080817241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>36</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>38</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.300259374036963</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.1849980633531317</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>38</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>41</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.2029480885208722</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.1179658103985111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>38</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>39</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>40</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>41</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>38</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.1222844844622688</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1500974171422782</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>35</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>36</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>38</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>39</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>41</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.2172623239245044</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1589305820663809</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>35</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>36</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>37</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>38</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>39</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>38</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.1061108414571628</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.1182574584609863</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>36</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>37</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>38</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>41</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>38</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.3097266897267639</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.4417684776992253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>35</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>37</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>38</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>41</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>38</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.221538232972896</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1592282072151607</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>35</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>36</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>38</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>39</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>41</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1099898786275195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>38</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.2192474960006351</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1099898786275195</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_database/demo.xlsx
+++ b/Excel_database/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Gender</t>
   </si>
@@ -189,6 +189,54 @@
   </si>
   <si>
     <t>COP important values - Reach_R</t>
+  </si>
+  <si>
+    <t>Correlation values between EMG, COP, velocity and accelaration</t>
+  </si>
+  <si>
+    <t>**EMG data - Right muscle minus left muscle. Correlation between EMG data,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COP in X direction, velocity in X direction and accelaration in X direction.</t>
+  </si>
+  <si>
+    <t>Correlation values - OneFootStanding_R_EO</t>
+  </si>
+  <si>
+    <t>Velocity X</t>
+  </si>
+  <si>
+    <t>Acelaration X</t>
+  </si>
+  <si>
+    <t>Correlation values - Reach_L</t>
+  </si>
+  <si>
+    <t>Correlation values - Reach_C</t>
+  </si>
+  <si>
+    <t>Correlation values - Reach_Ground</t>
+  </si>
+  <si>
+    <t>Correlation values - OneFootStanding_R_EC</t>
+  </si>
+  <si>
+    <t>Correlation values - OneFootStanding_L_EO</t>
+  </si>
+  <si>
+    <t>Correlation values - Standing_EO</t>
+  </si>
+  <si>
+    <t>Correlation values - Arms_extension</t>
+  </si>
+  <si>
+    <t>Correlation values - Reach_R</t>
+  </si>
+  <si>
+    <t>Correlation values - Standing_EC</t>
+  </si>
+  <si>
+    <t>Correlation values - OneFootStanding_L_EC</t>
   </si>
 </sst>
 </file>
@@ -562,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +678,7 @@
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="1" t="s"/>
+      <c r="P7" s="1" t="n"/>
       <c r="Q7" s="1" t="s">
         <v>12</v>
       </c>
@@ -805,7 +853,7 @@
       <c r="J20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="1" t="s"/>
+      <c r="P20" s="1" t="n"/>
       <c r="Q20" s="1" t="s">
         <v>12</v>
       </c>
@@ -980,7 +1028,7 @@
       <c r="J33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P33" s="1" t="s"/>
+      <c r="P33" s="1" t="n"/>
       <c r="Q33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1203,7 @@
       <c r="J46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="1" t="s"/>
+      <c r="P46" s="1" t="n"/>
       <c r="Q46" s="1" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1378,7 @@
       <c r="J59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P59" s="1" t="s"/>
+      <c r="P59" s="1" t="n"/>
       <c r="Q59" s="1" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1553,7 @@
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P72" s="1" t="s"/>
+      <c r="P72" s="1" t="n"/>
       <c r="Q72" s="1" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +1728,7 @@
       <c r="J85" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P85" s="1" t="s"/>
+      <c r="P85" s="1" t="n"/>
       <c r="Q85" s="1" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1903,7 @@
       <c r="J98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P98" s="1" t="s"/>
+      <c r="P98" s="1" t="n"/>
       <c r="Q98" s="1" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2078,7 @@
       <c r="J111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P111" s="1" t="s"/>
+      <c r="P111" s="1" t="n"/>
       <c r="Q111" s="1" t="s">
         <v>12</v>
       </c>
@@ -2205,7 +2253,7 @@
       <c r="J124" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P124" s="1" t="s"/>
+      <c r="P124" s="1" t="n"/>
       <c r="Q124" s="1" t="s">
         <v>12</v>
       </c>
@@ -2380,7 +2428,7 @@
       <c r="J137" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P137" s="1" t="s"/>
+      <c r="P137" s="1" t="n"/>
       <c r="Q137" s="1" t="s">
         <v>12</v>
       </c>
@@ -2525,6 +2573,428 @@
       </c>
       <c r="J145" t="n">
         <v>0.2385180051329735</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
+      <c r="A151" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
+      <c r="A154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
+      <c r="A155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
+      <c r="A158" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
+      <c r="A159" s="1" t="s"/>
+      <c r="B159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
+      <c r="A160" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
+      <c r="A161" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
+      <c r="A162" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
+      <c r="A163" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="A166" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
+      <c r="A167" s="1" t="s"/>
+      <c r="B167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="A168" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
+      <c r="A169" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
+      <c r="A170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
+      <c r="A171" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="A174" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="A175" s="1" t="s"/>
+      <c r="B175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="A179" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" s="1" t="s"/>
+      <c r="B183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18">
+      <c r="A184" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191" s="1" t="s"/>
+      <c r="B191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="A192" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
+      <c r="A195" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
+      <c r="A198" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199" s="1" t="s"/>
+      <c r="B199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207" s="1" t="s"/>
+      <c r="B207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18">
+      <c r="A209" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
+      <c r="A210" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18">
+      <c r="A211" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
+      <c r="A214" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
+      <c r="A215" s="1" t="s"/>
+      <c r="B215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
+      <c r="A216" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
+      <c r="A217" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
+      <c r="A218" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
+      <c r="A219" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
+      <c r="A222" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" s="1" t="s"/>
+      <c r="B223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
+      <c r="A224" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
+      <c r="A226" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
+      <c r="A227" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
+      <c r="A230" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
+      <c r="A231" s="1" t="s"/>
+      <c r="B231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
+      <c r="A232" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
+      <c r="A233" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
+      <c r="A234" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
+      <c r="A235" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
+      <c r="A238" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
+      <c r="A239" s="1" t="s"/>
+      <c r="B239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
+      <c r="A240" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
+      <c r="A241" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
+      <c r="A242" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
+      <c r="A243" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_database/demo.xlsx
+++ b/Excel_database/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Gender</t>
   </si>
@@ -197,9 +197,18 @@
     <t>**EMG data - Right muscle minus left muscle. Correlation between EMG data,</t>
   </si>
   <si>
+    <t>**EMG data - Front muscle minus back muscle. Correlation between EMG data,</t>
+  </si>
+  <si>
+    <t>**EMG data - Front muscle minus back muscle in cross direction. Correlation between EMG data,</t>
+  </si>
+  <si>
     <t xml:space="preserve"> COP in X direction, velocity in X direction and accelaration in X direction.</t>
   </si>
   <si>
+    <t xml:space="preserve"> COP in Y direction, velocity in Y direction and accelaration in Y direction.</t>
+  </si>
+  <si>
     <t>Correlation values - OneFootStanding_R_EO</t>
   </si>
   <si>
@@ -207,6 +216,36 @@
   </si>
   <si>
     <t>Acelaration X</t>
+  </si>
+  <si>
+    <t>Velocity Y</t>
+  </si>
+  <si>
+    <t>Acelaration Y</t>
+  </si>
+  <si>
+    <t>R-M_L</t>
+  </si>
+  <si>
+    <t>RL-MR</t>
+  </si>
+  <si>
+    <t>R-M_R</t>
+  </si>
+  <si>
+    <t>RR-LM</t>
+  </si>
+  <si>
+    <t>O-I_L</t>
+  </si>
+  <si>
+    <t>OL-IR</t>
+  </si>
+  <si>
+    <t>O-I_R</t>
+  </si>
+  <si>
+    <t>OR-IL</t>
   </si>
   <si>
     <t>Correlation values - Reach_L</t>
@@ -261,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -270,8 +309,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00000080"/>
+        <bgColor rgb="00000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00BCC2BC"/>
         <bgColor rgb="00BCC2BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6600"/>
+        <bgColor rgb="00FF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,13 +338,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -671,18 +724,18 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="1" t="n"/>
-      <c r="Q7" s="1" t="s">
+      <c r="P7" s="4" t="n"/>
+      <c r="Q7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -696,7 +749,7 @@
       <c r="C8" t="n">
         <v>18.0268944061821</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="n">
@@ -705,7 +758,7 @@
       <c r="J8" t="n">
         <v>0.1057006761513258</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q8" t="n">
@@ -725,7 +778,7 @@
       <c r="C9" t="n">
         <v>18.71073734256192</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="n">
@@ -745,7 +798,7 @@
       <c r="C10" t="n">
         <v>6.796723115872617</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="n">
@@ -754,7 +807,7 @@
       <c r="J10" t="n">
         <v>0.07017903808969089</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q10" t="n">
@@ -771,7 +824,7 @@
       <c r="C11" t="n">
         <v>11.9078194881101</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="n">
@@ -782,7 +835,7 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I12" t="n">
@@ -793,7 +846,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I13" t="n">
@@ -804,7 +857,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I14" t="n">
@@ -815,7 +868,7 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I15" t="n">
@@ -846,18 +899,18 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="1" t="n"/>
-      <c r="Q20" s="1" t="s">
+      <c r="P20" s="4" t="n"/>
+      <c r="Q20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -871,7 +924,7 @@
       <c r="C21" t="n">
         <v>18.22935484527192</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" t="n">
@@ -880,7 +933,7 @@
       <c r="J21" t="n">
         <v>0.4908267670774381</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q21" t="n">
@@ -900,7 +953,7 @@
       <c r="C22" t="n">
         <v>11.21147986333975</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I22" t="n">
@@ -920,7 +973,7 @@
       <c r="C23" t="n">
         <v>2.623073289705866</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I23" t="n">
@@ -929,7 +982,7 @@
       <c r="J23" t="n">
         <v>0.7206664162002944</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q23" t="n">
@@ -946,7 +999,7 @@
       <c r="C24" t="n">
         <v>3.794981905143698</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I24" t="n">
@@ -957,7 +1010,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I25" t="n">
@@ -968,7 +1021,7 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I26" t="n">
@@ -979,7 +1032,7 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I27" t="n">
@@ -990,7 +1043,7 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I28" t="n">
@@ -1021,18 +1074,18 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="1" t="n"/>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="4" t="n"/>
+      <c r="I33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P33" s="1" t="n"/>
-      <c r="Q33" s="1" t="s">
+      <c r="P33" s="4" t="n"/>
+      <c r="Q33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1046,7 +1099,7 @@
       <c r="C34" t="n">
         <v>20.68254977678546</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I34" t="n">
@@ -1055,7 +1108,7 @@
       <c r="J34" t="n">
         <v>0.3681029080817241</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q34" t="n">
@@ -1075,7 +1128,7 @@
       <c r="C35" t="n">
         <v>11.43546246541196</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I35" t="n">
@@ -1095,7 +1148,7 @@
       <c r="C36" t="n">
         <v>44.8124438531143</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I36" t="n">
@@ -1104,7 +1157,7 @@
       <c r="J36" t="n">
         <v>0.4738452507785054</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q36" t="n">
@@ -1121,7 +1174,7 @@
       <c r="C37" t="n">
         <v>13.93411857197144</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I37" t="n">
@@ -1132,7 +1185,7 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I38" t="n">
@@ -1143,7 +1196,7 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I39" t="n">
@@ -1154,7 +1207,7 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I40" t="n">
@@ -1165,7 +1218,7 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I41" t="n">
@@ -1196,18 +1249,18 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="1" t="n"/>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="1" t="n"/>
-      <c r="Q46" s="1" t="s">
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R46" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1221,7 +1274,7 @@
       <c r="C47" t="n">
         <v>61.64906980523409</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I47" t="n">
@@ -1230,7 +1283,7 @@
       <c r="J47" t="n">
         <v>0.1849980633531317</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q47" t="n">
@@ -1250,7 +1303,7 @@
       <c r="C48" t="n">
         <v>42.81045768915942</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="n">
@@ -1270,7 +1323,7 @@
       <c r="C49" t="n">
         <v>25.96225026574039</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I49" t="n">
@@ -1279,7 +1332,7 @@
       <c r="J49" t="n">
         <v>0.5964066392433998</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q49" t="n">
@@ -1296,7 +1349,7 @@
       <c r="C50" t="n">
         <v>8.550835758653387</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I50" t="n">
@@ -1307,7 +1360,7 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I51" t="n">
@@ -1318,7 +1371,7 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I52" t="n">
@@ -1329,7 +1382,7 @@
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I53" t="n">
@@ -1340,7 +1393,7 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I54" t="n">
@@ -1371,18 +1424,18 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="1" t="n"/>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P59" s="1" t="n"/>
-      <c r="Q59" s="1" t="s">
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="R59" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1396,7 +1449,7 @@
       <c r="C60" t="n">
         <v>41.28435878444369</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I60" t="n">
@@ -1405,7 +1458,7 @@
       <c r="J60" t="n">
         <v>0.1179658103985111</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="P60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q60" t="n">
@@ -1425,7 +1478,7 @@
       <c r="C61" t="n">
         <v>68.1896834993688</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I61" t="n">
@@ -1445,7 +1498,7 @@
       <c r="C62" t="n">
         <v>49.90337008990986</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I62" t="n">
@@ -1454,7 +1507,7 @@
       <c r="J62" t="n">
         <v>0.05905615939121805</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q62" t="n">
@@ -1471,7 +1524,7 @@
       <c r="C63" t="n">
         <v>13.95442054458875</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I63" t="n">
@@ -1482,7 +1535,7 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I64" t="n">
@@ -1493,7 +1546,7 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="n">
@@ -1504,7 +1557,7 @@
       </c>
     </row>
     <row r="66" spans="1:18">
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I66" t="n">
@@ -1515,7 +1568,7 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I67" t="n">
@@ -1546,18 +1599,18 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="1" t="n"/>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P72" s="1" t="n"/>
-      <c r="Q72" s="1" t="s">
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="R72" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1571,7 +1624,7 @@
       <c r="C73" t="n">
         <v>99.93157934047532</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I73" t="n">
@@ -1580,7 +1633,7 @@
       <c r="J73" t="n">
         <v>0.1500974171422782</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="P73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q73" t="n">
@@ -1600,7 +1653,7 @@
       <c r="C74" t="n">
         <v>75.98580877794137</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I74" t="n">
@@ -1620,7 +1673,7 @@
       <c r="C75" t="n">
         <v>35.38711745752647</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I75" t="n">
@@ -1629,7 +1682,7 @@
       <c r="J75" t="n">
         <v>0.1047056653340995</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="P75" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q75" t="n">
@@ -1646,7 +1699,7 @@
       <c r="C76" t="n">
         <v>31.0311803319632</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I76" t="n">
@@ -1657,7 +1710,7 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I77" t="n">
@@ -1668,7 +1721,7 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I78" t="n">
@@ -1679,7 +1732,7 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I79" t="n">
@@ -1690,7 +1743,7 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I80" t="n">
@@ -1721,18 +1774,18 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="1" t="n"/>
-      <c r="I85" s="1" t="s">
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P85" s="1" t="n"/>
-      <c r="Q85" s="1" t="s">
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1746,7 +1799,7 @@
       <c r="C86" t="n">
         <v>13.82814979733974</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I86" t="n">
@@ -1755,7 +1808,7 @@
       <c r="J86" t="n">
         <v>0.1589305820663809</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="P86" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q86" t="n">
@@ -1775,7 +1828,7 @@
       <c r="C87" t="n">
         <v>8.96726107835687</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I87" t="n">
@@ -1795,7 +1848,7 @@
       <c r="C88" t="n">
         <v>2.702055672568854</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I88" t="n">
@@ -1804,7 +1857,7 @@
       <c r="J88" t="n">
         <v>0.2529674885420356</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="P88" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q88" t="n">
@@ -1821,7 +1874,7 @@
       <c r="C89" t="n">
         <v>4.226667715759254</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I89" t="n">
@@ -1832,7 +1885,7 @@
       </c>
     </row>
     <row r="90" spans="1:18">
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I90" t="n">
@@ -1843,7 +1896,7 @@
       </c>
     </row>
     <row r="91" spans="1:18">
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I91" t="n">
@@ -1854,7 +1907,7 @@
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I92" t="n">
@@ -1865,7 +1918,7 @@
       </c>
     </row>
     <row r="93" spans="1:18">
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I93" t="n">
@@ -1896,18 +1949,18 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
-      <c r="H98" s="1" t="n"/>
-      <c r="I98" s="1" t="s">
+      <c r="H98" s="4" t="n"/>
+      <c r="I98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P98" s="1" t="n"/>
-      <c r="Q98" s="1" t="s">
+      <c r="P98" s="4" t="n"/>
+      <c r="Q98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R98" s="1" t="s">
+      <c r="R98" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1921,7 +1974,7 @@
       <c r="C99" t="n">
         <v>61.87908589945938</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I99" t="n">
@@ -1930,7 +1983,7 @@
       <c r="J99" t="n">
         <v>0.1182574584609863</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="P99" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q99" t="n">
@@ -1950,7 +2003,7 @@
       <c r="C100" t="n">
         <v>124.0193600721341</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I100" t="n">
@@ -1970,7 +2023,7 @@
       <c r="C101" t="n">
         <v>24.85413621829502</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I101" t="n">
@@ -1979,7 +2032,7 @@
       <c r="J101" t="n">
         <v>0.09192409589864936</v>
       </c>
-      <c r="P101" s="1" t="s">
+      <c r="P101" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q101" t="n">
@@ -1996,7 +2049,7 @@
       <c r="C102" t="n">
         <v>21.11615818206215</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I102" t="n">
@@ -2007,7 +2060,7 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I103" t="n">
@@ -2018,7 +2071,7 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I104" t="n">
@@ -2029,7 +2082,7 @@
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I105" t="n">
@@ -2040,7 +2093,7 @@
       </c>
     </row>
     <row r="106" spans="1:18">
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I106" t="n">
@@ -2071,18 +2124,18 @@
       <c r="C111" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="1" t="n"/>
-      <c r="I111" s="1" t="s">
+      <c r="H111" s="4" t="n"/>
+      <c r="I111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P111" s="1" t="n"/>
-      <c r="Q111" s="1" t="s">
+      <c r="P111" s="4" t="n"/>
+      <c r="Q111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R111" s="1" t="s">
+      <c r="R111" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2096,7 +2149,7 @@
       <c r="C112" t="n">
         <v>25.26013744579906</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I112" t="n">
@@ -2105,7 +2158,7 @@
       <c r="J112" t="n">
         <v>0.4417684776992253</v>
       </c>
-      <c r="P112" s="1" t="s">
+      <c r="P112" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q112" t="n">
@@ -2125,7 +2178,7 @@
       <c r="C113" t="n">
         <v>8.993540530517299</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I113" t="n">
@@ -2145,7 +2198,7 @@
       <c r="C114" t="n">
         <v>2.70608048994364</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I114" t="n">
@@ -2154,7 +2207,7 @@
       <c r="J114" t="n">
         <v>0.6236727128529278</v>
       </c>
-      <c r="P114" s="1" t="s">
+      <c r="P114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q114" t="n">
@@ -2171,7 +2224,7 @@
       <c r="C115" t="n">
         <v>3.649424098669898</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I115" t="n">
@@ -2182,7 +2235,7 @@
       </c>
     </row>
     <row r="116" spans="1:18">
-      <c r="H116" s="1" t="s">
+      <c r="H116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I116" t="n">
@@ -2193,7 +2246,7 @@
       </c>
     </row>
     <row r="117" spans="1:18">
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I117" t="n">
@@ -2204,7 +2257,7 @@
       </c>
     </row>
     <row r="118" spans="1:18">
-      <c r="H118" s="1" t="s">
+      <c r="H118" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I118" t="n">
@@ -2215,7 +2268,7 @@
       </c>
     </row>
     <row r="119" spans="1:18">
-      <c r="H119" s="1" t="s">
+      <c r="H119" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I119" t="n">
@@ -2246,18 +2299,18 @@
       <c r="C124" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="1" t="n"/>
-      <c r="I124" s="1" t="s">
+      <c r="H124" s="4" t="n"/>
+      <c r="I124" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P124" s="1" t="n"/>
-      <c r="Q124" s="1" t="s">
+      <c r="P124" s="4" t="n"/>
+      <c r="Q124" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R124" s="1" t="s">
+      <c r="R124" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2271,7 +2324,7 @@
       <c r="C125" t="n">
         <v>24.47892698033158</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I125" t="n">
@@ -2280,7 +2333,7 @@
       <c r="J125" t="n">
         <v>0.1592282072151607</v>
       </c>
-      <c r="P125" s="1" t="s">
+      <c r="P125" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q125" t="n">
@@ -2300,7 +2353,7 @@
       <c r="C126" t="n">
         <v>26.06014715496212</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I126" t="n">
@@ -2320,7 +2373,7 @@
       <c r="C127" t="n">
         <v>3.000162453137578</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I127" t="n">
@@ -2329,7 +2382,7 @@
       <c r="J127" t="n">
         <v>0.1048120573289752</v>
       </c>
-      <c r="P127" s="1" t="s">
+      <c r="P127" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q127" t="n">
@@ -2346,7 +2399,7 @@
       <c r="C128" t="n">
         <v>4.329381731286911</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I128" t="n">
@@ -2357,7 +2410,7 @@
       </c>
     </row>
     <row r="129" spans="1:18">
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I129" t="n">
@@ -2368,7 +2421,7 @@
       </c>
     </row>
     <row r="130" spans="1:18">
-      <c r="H130" s="1" t="s">
+      <c r="H130" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I130" t="n">
@@ -2379,7 +2432,7 @@
       </c>
     </row>
     <row r="131" spans="1:18">
-      <c r="H131" s="1" t="s">
+      <c r="H131" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I131" t="n">
@@ -2390,7 +2443,7 @@
       </c>
     </row>
     <row r="132" spans="1:18">
-      <c r="H132" s="1" t="s">
+      <c r="H132" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I132" t="n">
@@ -2421,18 +2474,18 @@
       <c r="C137" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="1" t="n"/>
-      <c r="I137" s="1" t="s">
+      <c r="H137" s="4" t="n"/>
+      <c r="I137" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P137" s="1" t="n"/>
-      <c r="Q137" s="1" t="s">
+      <c r="P137" s="4" t="n"/>
+      <c r="Q137" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R137" s="1" t="s">
+      <c r="R137" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2446,7 +2499,7 @@
       <c r="C138" t="n">
         <v>25.53044592852795</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="H138" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I138" t="n">
@@ -2455,7 +2508,7 @@
       <c r="J138" t="n">
         <v>0.1099898786275195</v>
       </c>
-      <c r="P138" s="1" t="s">
+      <c r="P138" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q138" t="n">
@@ -2475,7 +2528,7 @@
       <c r="C139" t="n">
         <v>41.42957303900362</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H139" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I139" t="n">
@@ -2495,7 +2548,7 @@
       <c r="C140" t="n">
         <v>31.08982276658672</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I140" t="n">
@@ -2504,7 +2557,7 @@
       <c r="J140" t="n">
         <v>0.1102406703077786</v>
       </c>
-      <c r="P140" s="1" t="s">
+      <c r="P140" s="4" t="s">
         <v>21</v>
       </c>
       <c r="Q140" t="n">
@@ -2521,7 +2574,7 @@
       <c r="C141" t="n">
         <v>9.677590635557937</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H141" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I141" t="n">
@@ -2532,7 +2585,7 @@
       </c>
     </row>
     <row r="142" spans="1:18">
-      <c r="H142" s="1" t="s">
+      <c r="H142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I142" t="n">
@@ -2543,7 +2596,7 @@
       </c>
     </row>
     <row r="143" spans="1:18">
-      <c r="H143" s="1" t="s">
+      <c r="H143" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I143" t="n">
@@ -2554,7 +2607,7 @@
       </c>
     </row>
     <row r="144" spans="1:18">
-      <c r="H144" s="1" t="s">
+      <c r="H144" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I144" t="n">
@@ -2565,7 +2618,7 @@
       </c>
     </row>
     <row r="145" spans="1:18">
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I145" t="n">
@@ -2584,417 +2637,2002 @@
       <c r="A154" t="s">
         <v>59</v>
       </c>
+      <c r="H154" t="s">
+        <v>60</v>
+      </c>
+      <c r="O154" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="155" spans="1:18">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="H155" t="s">
+        <v>63</v>
+      </c>
+      <c r="O155" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:18">
-      <c r="A159" s="1" t="s"/>
-      <c r="B159" s="1" t="s">
+      <c r="A159" s="5" t="n"/>
+      <c r="B159" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>63</v>
+      <c r="C159" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H159" s="5" t="n"/>
+      <c r="I159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O159" s="5" t="s"/>
+      <c r="P159" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q159" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:18">
-      <c r="A160" s="1" t="s">
-        <v>15</v>
+      <c r="A160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.07840512057624699</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.03246575334584505</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.03209031125087043</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.05122325330721519</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.005967622702444621</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.02045295129368853</v>
+      </c>
+      <c r="O160" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-0.1515200378797535</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>-0.1268228370682912</v>
       </c>
     </row>
     <row r="161" spans="1:18">
-      <c r="A161" s="1" t="s">
-        <v>18</v>
+      <c r="A161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.001689694465323803</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.1225906678852867</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1073329925663583</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.1085092120885969</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.0364061393025378</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-0.01434757897368122</v>
+      </c>
+      <c r="O161" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-0.01024294808246148</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.04688357598818284</v>
       </c>
     </row>
     <row r="162" spans="1:18">
-      <c r="A162" s="1" t="s">
-        <v>20</v>
+      <c r="A162" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.2129037824414606</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.05547958876361802</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.05843681214467718</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.05780910536201866</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02355199202883408</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.0177620489657398</v>
+      </c>
+      <c r="O162" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.05832615683000891</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.04845882535256194</v>
       </c>
     </row>
     <row r="163" spans="1:18">
-      <c r="A163" s="1" t="s">
-        <v>23</v>
+      <c r="A163" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1742155322616799</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.1339061954962067</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1055202936830066</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.156146308876267</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.06981650039233557</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.05308968846087733</v>
+      </c>
+      <c r="O163" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0.0564246484762253</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.157055903778147</v>
       </c>
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:18">
-      <c r="A167" s="1" t="s"/>
-      <c r="B167" s="1" t="s">
+      <c r="A167" s="5" t="n"/>
+      <c r="B167" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>63</v>
+      <c r="C167" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H167" s="5" t="n"/>
+      <c r="I167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O167" s="5" t="s"/>
+      <c r="P167" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q167" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:18">
-      <c r="A168" s="1" t="s">
-        <v>15</v>
+      <c r="A168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.0550722257065811</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.003340292864361868</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.02961618162160434</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.5554934788113718</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.2938970385058306</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.2569498034471929</v>
+      </c>
+      <c r="O168" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0.2356456162458081</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.3637937619950962</v>
       </c>
     </row>
     <row r="169" spans="1:18">
-      <c r="A169" s="1" t="s">
-        <v>18</v>
+      <c r="A169" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.2494129625586907</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3212419464890599</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3508351789174377</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.6819128733878799</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.5553810383651548</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.4882476283947315</v>
+      </c>
+      <c r="O169" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-0.2815232015657215</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>-0.1862925177736244</v>
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="1" t="s">
-        <v>20</v>
+      <c r="A170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.5969725504896158</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.4952749209207505</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.4935047326062867</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.7515806455196353</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.6511774333188509</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.608909714375797</v>
+      </c>
+      <c r="O170" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-0.679230959963798</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>-0.9161222413381331</v>
       </c>
     </row>
     <row r="171" spans="1:18">
-      <c r="A171" s="1" t="s">
-        <v>23</v>
+      <c r="A171" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.6705350076857912</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5087260137764008</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4855584827181693</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.8888503810885964</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.7548198411230831</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.7266066758765771</v>
+      </c>
+      <c r="O171" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-0.5303198791043535</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>-0.7450677391520842</v>
       </c>
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="A175" s="5" t="n"/>
+      <c r="B175" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
-      <c r="A175" s="1" t="s"/>
-      <c r="B175" s="1" t="s">
+      <c r="D175" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H175" s="5" t="n"/>
+      <c r="I175" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O175" s="5" t="s"/>
+      <c r="P175" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>63</v>
+      <c r="Q175" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:18">
-      <c r="A176" s="1" t="s">
-        <v>15</v>
+      <c r="A176" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.12608383439894</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.2495945836094872</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-0.2199793988985357</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.1021286037028926</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.1768341200100549</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-0.1828433629690536</v>
+      </c>
+      <c r="O176" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-0.1747167204642141</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.231689927472167</v>
       </c>
     </row>
     <row r="177" spans="1:18">
-      <c r="A177" s="1" t="s">
-        <v>18</v>
+      <c r="A177" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.2405789052026369</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.2302560691540333</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.2484284070217751</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.2507967238386775</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.3745294055842778</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-0.3622289862377512</v>
+      </c>
+      <c r="O177" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-0.2363420653320708</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>-0.0728919238775656</v>
       </c>
     </row>
     <row r="178" spans="1:18">
-      <c r="A178" s="1" t="s">
-        <v>20</v>
+      <c r="A178" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.2515032631208012</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.02387738822970016</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-0.06333057724937806</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.432773100269452</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.05088285271809637</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.02298921823211397</v>
+      </c>
+      <c r="O178" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-0.5010719595034424</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>-0.54748948745216</v>
       </c>
     </row>
     <row r="179" spans="1:18">
-      <c r="A179" s="1" t="s">
-        <v>23</v>
+      <c r="A179" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.2977960000959688</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.01601532711842745</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.05458735443266747</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.2052719774958594</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.04631579317844427</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.05063142761160443</v>
+      </c>
+      <c r="O179" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-0.4211151140368229</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>-0.1636791547741639</v>
       </c>
     </row>
     <row r="182" spans="1:18">
       <c r="A182" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" s="5" t="n"/>
+      <c r="B183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
-      <c r="A183" s="1" t="s"/>
-      <c r="B183" s="1" t="s">
+      <c r="H183" s="5" t="n"/>
+      <c r="I183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O183" s="5" t="s"/>
+      <c r="P183" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>63</v>
+      <c r="Q183" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:18">
-      <c r="A184" s="1" t="s">
-        <v>15</v>
+      <c r="A184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.2339353895476005</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.05319561341804414</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.07164982574218094</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.1913053021620481</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.198099597903785</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.177683039449723</v>
+      </c>
+      <c r="O184" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0.3630658019246439</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.2832650519246705</v>
       </c>
     </row>
     <row r="185" spans="1:18">
-      <c r="A185" s="1" t="s">
-        <v>18</v>
+      <c r="A185" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.2794281121973176</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.03884804305075375</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-0.05466798888286816</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.3376094716695235</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.04192203851692509</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.02832241035313825</v>
+      </c>
+      <c r="O185" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0.02523908276350076</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>-0.2167973161668857</v>
       </c>
     </row>
     <row r="186" spans="1:18">
-      <c r="A186" s="1" t="s">
-        <v>20</v>
+      <c r="A186" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.2794267864974074</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.08280750997314286</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.06637535372414673</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.6013203776424605</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.20251215917225</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.1700090758702199</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P186" t="n">
+        <v>-0.1778853906266711</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>-0.5235157930676223</v>
       </c>
     </row>
     <row r="187" spans="1:18">
-      <c r="A187" s="1" t="s">
-        <v>23</v>
+      <c r="A187" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.3578007539551996</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.14414087481565</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1028024739221843</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.4001716641815824</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.1942745450175619</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.1801591434194018</v>
+      </c>
+      <c r="O187" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P187" t="n">
+        <v>-0.1400955612147695</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>-0.490590272316509</v>
       </c>
     </row>
     <row r="190" spans="1:18">
       <c r="A190" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191" s="5" t="n"/>
+      <c r="B191" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H191" s="5" t="n"/>
+      <c r="I191" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J191" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
-      <c r="A191" s="1" t="s"/>
-      <c r="B191" s="1" t="s">
+      <c r="K191" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O191" s="5" t="s"/>
+      <c r="P191" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>63</v>
+      <c r="Q191" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:18">
-      <c r="A192" s="1" t="s">
-        <v>15</v>
+      <c r="A192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1880708890965969</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.1157533931884171</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.1217566557067141</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.1394120988018058</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0.02745787053738424</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-0.0461327251802366</v>
+      </c>
+      <c r="O192" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0.2888363910553011</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.1557055586238253</v>
       </c>
     </row>
     <row r="193" spans="1:18">
-      <c r="A193" s="1" t="s">
-        <v>18</v>
+      <c r="A193" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.05250574209713302</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.2148176969889489</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.2240053858663752</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.3213253606472052</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.1076958323451317</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.08007059364173509</v>
+      </c>
+      <c r="O193" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0.1596879920848151</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.2563017517060986</v>
       </c>
     </row>
     <row r="194" spans="1:18">
-      <c r="A194" s="1" t="s">
-        <v>20</v>
+      <c r="A194" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.03050479154992944</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.006147926497675103</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.01330861381026795</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.03568382548666624</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-0.1097921555434279</v>
+      </c>
+      <c r="K194" t="n">
+        <v>-0.1195416819870507</v>
+      </c>
+      <c r="O194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0.1399716823811281</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>-0.05798999650121171</v>
       </c>
     </row>
     <row r="195" spans="1:18">
-      <c r="A195" s="1" t="s">
-        <v>23</v>
+      <c r="A195" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.0783235427825605</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0675071974797861</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.05995001639706099</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.0468691498463423</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.05198876869159778</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.03628304168744162</v>
+      </c>
+      <c r="O195" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0.05463933867741651</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>-0.05473088688260466</v>
       </c>
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O198" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199" s="5" t="n"/>
+      <c r="B199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H199" s="5" t="n"/>
+      <c r="I199" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K199" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
-      <c r="A199" s="1" t="s"/>
-      <c r="B199" s="1" t="s">
+      <c r="O199" s="5" t="s"/>
+      <c r="P199" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>63</v>
+      <c r="Q199" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:18">
-      <c r="A200" s="1" t="s">
-        <v>15</v>
+      <c r="A200" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.1072340054140599</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.04216362222516593</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.03455818704468504</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.3169929662182861</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.05424398211854229</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-0.03621536325476028</v>
+      </c>
+      <c r="O200" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P200" t="n">
+        <v>-0.297443344843816</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.2304265618089451</v>
       </c>
     </row>
     <row r="201" spans="1:18">
-      <c r="A201" s="1" t="s">
-        <v>18</v>
+      <c r="A201" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.06577521473411303</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.06091787706136262</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0768270742268144</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.2759396102558047</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.0110257589362268</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-0.0003862235897826311</v>
+      </c>
+      <c r="O201" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P201" t="n">
+        <v>-0.3472311846732608</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.3443560319328517</v>
       </c>
     </row>
     <row r="202" spans="1:18">
-      <c r="A202" s="1" t="s">
-        <v>20</v>
+      <c r="A202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.06669638191598001</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.04400063972082147</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.0480545290423869</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.0554115365866727</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.01565867434769304</v>
+      </c>
+      <c r="K202" t="n">
+        <v>-0.02683102121683651</v>
+      </c>
+      <c r="O202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P202" t="n">
+        <v>-0.1690868763479078</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.02508967273866301</v>
       </c>
     </row>
     <row r="203" spans="1:18">
-      <c r="A203" s="1" t="s">
-        <v>23</v>
+      <c r="A203" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.1043288017678786</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.05597741447539984</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.04814866674417018</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.1719481527924621</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02765381886278399</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.04129030854776187</v>
+      </c>
+      <c r="O203" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P203" t="n">
+        <v>-0.164762798549955</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.1849421867065197</v>
       </c>
     </row>
     <row r="206" spans="1:18">
       <c r="A206" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207" s="5" t="n"/>
+      <c r="B207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H207" s="5" t="n"/>
+      <c r="I207" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O207" s="5" t="s"/>
+      <c r="P207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q207" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.1293666414339907</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.05976989643153409</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0756353211453181</v>
+      </c>
+      <c r="H208" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
-      <c r="A207" s="1" t="s"/>
-      <c r="B207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18">
-      <c r="A208" s="1" t="s">
-        <v>15</v>
+      <c r="I208" t="n">
+        <v>0.42542146848109</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.003560905083610737</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.02678677242110055</v>
+      </c>
+      <c r="O208" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0.3661701311136927</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.3617576494615592</v>
       </c>
     </row>
     <row r="209" spans="1:18">
-      <c r="A209" s="1" t="s">
-        <v>18</v>
+      <c r="A209" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.04364614700599535</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.03516648782706287</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.04982137436543502</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.1050597204232976</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03055802292371064</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0.04298530459288271</v>
+      </c>
+      <c r="O209" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0.1258030927155533</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.1650572129921391</v>
       </c>
     </row>
     <row r="210" spans="1:18">
-      <c r="A210" s="1" t="s">
-        <v>20</v>
+      <c r="A210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.01797900631658215</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.007856358142255842</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.007007687061858831</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.02480779499052509</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.001518515819834425</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.003367017593056314</v>
+      </c>
+      <c r="O210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0.04153678315128221</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0.02307955919729544</v>
       </c>
     </row>
     <row r="211" spans="1:18">
-      <c r="A211" s="1" t="s">
-        <v>23</v>
+      <c r="A211" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.08318783409382688</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.0318042872207678</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-0.03276731140267736</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.01158668798272744</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02743378476662723</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.03598360023497826</v>
+      </c>
+      <c r="O211" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0.01496207822051928</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.01609041976102538</v>
       </c>
     </row>
     <row r="214" spans="1:18">
       <c r="A214" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
+      <c r="A215" s="5" t="n"/>
+      <c r="B215" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H215" s="5" t="n"/>
+      <c r="I215" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K215" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O215" s="5" t="s"/>
+      <c r="P215" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q215" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
+      <c r="A216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.03812946117309607</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1757174011775061</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.1643317907058313</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.06735722170731644</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.03158144911989087</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0.02144593756450866</v>
+      </c>
+      <c r="O216" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
-      <c r="A215" s="1" t="s"/>
-      <c r="B215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18">
-      <c r="A216" s="1" t="s">
-        <v>15</v>
+      <c r="P216" t="n">
+        <v>0.02450481032208153</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.04338034103260673</v>
       </c>
     </row>
     <row r="217" spans="1:18">
-      <c r="A217" s="1" t="s">
-        <v>18</v>
+      <c r="A217" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1128710410925863</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.09944165794298222</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-0.1134897013444437</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.0183507991729008</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01891751232324975</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.01192672027175106</v>
+      </c>
+      <c r="O217" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0.01156560300907277</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.04156246814227109</v>
       </c>
     </row>
     <row r="218" spans="1:18">
-      <c r="A218" s="1" t="s">
-        <v>20</v>
+      <c r="A218" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.1047786796042952</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1182670221188863</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.1179211837801178</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-0.03602275705719888</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.07785381947315424</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.09323689673534746</v>
+      </c>
+      <c r="O218" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P218" t="n">
+        <v>-0.08471628196487616</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>-0.03891694448813678</v>
       </c>
     </row>
     <row r="219" spans="1:18">
-      <c r="A219" s="1" t="s">
-        <v>23</v>
+      <c r="A219" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.03667004220093682</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1736324683659377</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.174094460830388</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.07848612715623832</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01748555448074405</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.02065544343575066</v>
+      </c>
+      <c r="O219" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P219" t="n">
+        <v>-0.0472865305758215</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0.05852791188525961</v>
       </c>
     </row>
     <row r="222" spans="1:18">
       <c r="A222" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" s="5" t="n"/>
+      <c r="B223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H223" s="5" t="n"/>
+      <c r="I223" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K223" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O223" s="5" t="s"/>
+      <c r="P223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q223" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
+      <c r="A224" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.02509479567626387</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.1924706463875567</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-0.1703583208338146</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.409500945484719</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.2704669816531582</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.3052143376380886</v>
+      </c>
+      <c r="O224" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0.1753752656487981</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>-0.0155646447053047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1768714313905216</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.2312667105353871</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-0.2309065774969399</v>
+      </c>
+      <c r="H225" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="223" spans="1:18">
-      <c r="A223" s="1" t="s"/>
-      <c r="B223" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18">
-      <c r="A224" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18">
-      <c r="A225" s="1" t="s">
-        <v>18</v>
+      <c r="I225" t="n">
+        <v>0.2707653126995114</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-0.1099532911834645</v>
+      </c>
+      <c r="K225" t="n">
+        <v>-0.0665614617671879</v>
+      </c>
+      <c r="O225" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0.2417547176920065</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>-0.4857336024596537</v>
       </c>
     </row>
     <row r="226" spans="1:18">
-      <c r="A226" s="1" t="s">
-        <v>20</v>
+      <c r="A226" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.2775683967803945</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-0.07831144464508484</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-0.08569975891247776</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-0.7677032309483517</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.4577289277777331</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.4487618619265505</v>
+      </c>
+      <c r="O226" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0.1564897659968794</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>-0.3864934541048059</v>
       </c>
     </row>
     <row r="227" spans="1:18">
-      <c r="A227" s="1" t="s">
-        <v>23</v>
+      <c r="A227" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.04046269634709486</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-0.2452704377208515</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.2364608956453524</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.5048146794444488</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.2802779673026435</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.3154459704956927</v>
+      </c>
+      <c r="O227" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P227" t="n">
+        <v>-0.2029241014377052</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>-0.7011184188229154</v>
       </c>
     </row>
     <row r="230" spans="1:18">
       <c r="A230" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
+      <c r="A231" s="5" t="n"/>
+      <c r="B231" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H231" s="5" t="n"/>
+      <c r="I231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K231" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O231" s="5" t="s"/>
+      <c r="P231" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q231" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
+      <c r="A232" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.03053775537055897</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.04193521914781863</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-0.06317661526066071</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.1332928093594843</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-0.006412837693224287</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-0.008983502754275596</v>
+      </c>
+      <c r="O232" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0.1048971808851047</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0.168324759425674</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
+      <c r="A233" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.1541200466157974</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.01006211674933974</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-0.008011332079158289</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.08940011916286258</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-0.05717429115734676</v>
+      </c>
+      <c r="K233" t="n">
+        <v>-0.07885209151134341</v>
+      </c>
+      <c r="O233" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="231" spans="1:18">
-      <c r="A231" s="1" t="s"/>
-      <c r="B231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18">
-      <c r="A232" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18">
-      <c r="A233" s="1" t="s">
-        <v>18</v>
+      <c r="P233" t="n">
+        <v>0.08512150175999435</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0.0604210210109106</v>
       </c>
     </row>
     <row r="234" spans="1:18">
-      <c r="A234" s="1" t="s">
-        <v>20</v>
+      <c r="A234" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.01928766999518634</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.07223632389586082</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-0.1022749231933093</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.07787125173824772</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-0.002720720884714364</v>
+      </c>
+      <c r="K234" t="n">
+        <v>-0.02742798780526859</v>
+      </c>
+      <c r="O234" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0.07658001268115</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0.07162937007545465</v>
       </c>
     </row>
     <row r="235" spans="1:18">
-      <c r="A235" s="1" t="s">
-        <v>23</v>
+      <c r="A235" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.07120176521114871</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.03233105507612878</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.03133315518685739</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-0.06007998424170781</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-0.0162931477684358</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-0.02587146452810913</v>
+      </c>
+      <c r="O235" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P235" t="n">
+        <v>-0.03652880675536664</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>-0.07754024057256108</v>
       </c>
     </row>
     <row r="238" spans="1:18">
       <c r="A238" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
+      <c r="A239" s="5" t="n"/>
+      <c r="B239" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H239" s="5" t="n"/>
+      <c r="I239" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K239" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O239" s="5" t="s"/>
+      <c r="P239" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q239" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
+      <c r="A240" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.2197607990672976</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.08847035137046212</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0771822353752761</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-0.04711984297800713</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02928163805538398</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.04390550308422233</v>
+      </c>
+      <c r="O240" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P240" t="n">
+        <v>-0.2111517863102141</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>-0.0332360191783766</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
+      <c r="A241" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.01886928201478091</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-0.001332651680397363</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-0.01737927147049168</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.1411842140745698</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.04397772354995879</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.04436823608160936</v>
+      </c>
+      <c r="O241" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P241" t="n">
+        <v>-0.1431984165914608</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0.1533137011429441</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
+      <c r="A242" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.007921296282920355</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0992720089594437</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.08694410850916395</v>
+      </c>
+      <c r="H242" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="239" spans="1:18">
-      <c r="A239" s="1" t="s"/>
-      <c r="B239" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18">
-      <c r="A240" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18">
-      <c r="A241" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18">
-      <c r="A242" s="1" t="s">
-        <v>20</v>
+      <c r="I242" t="n">
+        <v>0.08971179437062927</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.1611728418352249</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.1121634392778785</v>
+      </c>
+      <c r="O242" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P242" t="n">
+        <v>-0.1782901648253508</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.05249491370564338</v>
       </c>
     </row>
     <row r="243" spans="1:18">
-      <c r="A243" s="1" t="s">
-        <v>23</v>
+      <c r="A243" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.1426977929576117</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1863025805172313</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1287592995879304</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.2557614038248798</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.1277135672238101</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.1085039900998968</v>
+      </c>
+      <c r="O243" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P243" t="n">
+        <v>-0.07581942846805832</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.2567345242763209</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_database/demo.xlsx
+++ b/Excel_database/demo.xlsx
@@ -3,12 +3,13 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="1"/>
+    <s:workbookView activeTab="2"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <s:sheet name="Patient1_Healthy" sheetId="2" r:id="rId2"/>
     <s:sheet name="Patient2_Healthy" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Patient3_Healthy" sheetId="4" r:id="rId4"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>Gender</t>
   </si>
@@ -317,6 +318,21 @@
   <si>
     <t>Correlation coeficient between each muscle and each COP direction - OneFootStanding_L_EC</t>
   </si>
+  <si>
+    <t>**Frequency analysis of EMG and COP</t>
+  </si>
+  <si>
+    <t>Peak Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Mean Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Median Freq (Hz)</t>
+  </si>
+  <si>
+    <t>80% Freq (Hz)</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -367,8 +383,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6600"/>
-        <bgColor rgb="00FF6600"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00000080"/>
+        <bgColor rgb="00000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -394,6 +422,8 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -712,7 +742,7 @@
   </sheetPr>
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J145" workbookViewId="0">
+    <sheetView topLeftCell="J145" workbookViewId="0">
       <selection activeCell="V157" sqref="V157:Y288"/>
     </sheetView>
   </sheetViews>
@@ -5899,7 +5929,7 @@
   </sheetPr>
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8129,7 +8159,7 @@
       <c r="Q159" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W159" s="6" t="s"/>
+      <c r="W159" s="6" t="n"/>
       <c r="X159" s="6" t="s">
         <v>12</v>
       </c>
@@ -8535,7 +8565,7 @@
       <c r="Q171" t="n">
         <v>0.03877162157152501</v>
       </c>
-      <c r="W171" s="6" t="s"/>
+      <c r="W171" s="6" t="n"/>
       <c r="X171" s="6" t="s">
         <v>12</v>
       </c>
@@ -8841,7 +8871,7 @@
       <c r="Q183" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W183" s="6" t="s"/>
+      <c r="W183" s="6" t="n"/>
       <c r="X183" s="6" t="s">
         <v>12</v>
       </c>
@@ -9247,7 +9277,7 @@
       <c r="Q195" t="n">
         <v>0.235746529992102</v>
       </c>
-      <c r="W195" s="6" t="s"/>
+      <c r="W195" s="6" t="n"/>
       <c r="X195" s="6" t="s">
         <v>12</v>
       </c>
@@ -9553,7 +9583,7 @@
       <c r="Q207" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W207" s="6" t="s"/>
+      <c r="W207" s="6" t="n"/>
       <c r="X207" s="6" t="s">
         <v>12</v>
       </c>
@@ -9959,7 +9989,7 @@
       <c r="Q219" t="n">
         <v>-0.09238512754184154</v>
       </c>
-      <c r="W219" s="6" t="s"/>
+      <c r="W219" s="6" t="n"/>
       <c r="X219" s="6" t="s">
         <v>12</v>
       </c>
@@ -10265,7 +10295,7 @@
       <c r="Q231" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W231" s="6" t="s"/>
+      <c r="W231" s="6" t="n"/>
       <c r="X231" s="6" t="s">
         <v>12</v>
       </c>
@@ -10671,7 +10701,7 @@
       <c r="Q243" t="n">
         <v>0.4250069244185409</v>
       </c>
-      <c r="W243" s="6" t="s"/>
+      <c r="W243" s="6" t="n"/>
       <c r="X243" s="6" t="s">
         <v>12</v>
       </c>
@@ -10773,7 +10803,7 @@
       </c>
     </row>
     <row r="255" spans="1:25">
-      <c r="W255" s="6" t="s"/>
+      <c r="W255" s="6" t="n"/>
       <c r="X255" s="6" t="s">
         <v>12</v>
       </c>
@@ -10875,7 +10905,7 @@
       </c>
     </row>
     <row r="267" spans="1:25">
-      <c r="W267" s="6" t="s"/>
+      <c r="W267" s="6" t="n"/>
       <c r="X267" s="6" t="s">
         <v>12</v>
       </c>
@@ -10977,7 +11007,7 @@
       </c>
     </row>
     <row r="279" spans="1:25">
-      <c r="W279" s="6" t="s"/>
+      <c r="W279" s="6" t="n"/>
       <c r="X279" s="6" t="s">
         <v>12</v>
       </c>
@@ -11071,6 +11101,1466 @@
       </c>
       <c r="Y287" t="n">
         <v>0.2699751408190856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E363"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="8" t="s"/>
+      <c r="B259" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" t="n">
+        <v>20.5078125</v>
+      </c>
+      <c r="C260" t="n">
+        <v>45.24227049490499</v>
+      </c>
+      <c r="D260" t="n">
+        <v>190.4296875</v>
+      </c>
+      <c r="E260" t="n">
+        <v>73.2421875</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261" t="n">
+        <v>17.578125</v>
+      </c>
+      <c r="C261" t="n">
+        <v>64.18225650561983</v>
+      </c>
+      <c r="D261" t="n">
+        <v>248.046875</v>
+      </c>
+      <c r="E261" t="n">
+        <v>83.0078125</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" t="n">
+        <v>25.390625</v>
+      </c>
+      <c r="C262" t="n">
+        <v>48.1551870289768</v>
+      </c>
+      <c r="D262" t="n">
+        <v>132.8125</v>
+      </c>
+      <c r="E262" t="n">
+        <v>73.2421875</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" t="n">
+        <v>26.3671875</v>
+      </c>
+      <c r="C263" t="n">
+        <v>49.19686928752341</v>
+      </c>
+      <c r="D263" t="n">
+        <v>163.0859375</v>
+      </c>
+      <c r="E263" t="n">
+        <v>83.0078125</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" t="n">
+        <v>59.5703125</v>
+      </c>
+      <c r="C264" t="n">
+        <v>76.65626985108965</v>
+      </c>
+      <c r="D264" t="n">
+        <v>192.3828125</v>
+      </c>
+      <c r="E264" t="n">
+        <v>122.0703125</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B265" t="n">
+        <v>53.7109375</v>
+      </c>
+      <c r="C265" t="n">
+        <v>75.05119381491185</v>
+      </c>
+      <c r="D265" t="n">
+        <v>242.1875</v>
+      </c>
+      <c r="E265" t="n">
+        <v>109.375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" t="n">
+        <v>38.0859375</v>
+      </c>
+      <c r="C266" t="n">
+        <v>69.36376189960872</v>
+      </c>
+      <c r="D266" t="n">
+        <v>143.5546875</v>
+      </c>
+      <c r="E266" t="n">
+        <v>101.5625</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B267" t="n">
+        <v>23.4375</v>
+      </c>
+      <c r="C267" t="n">
+        <v>88.27619208716787</v>
+      </c>
+      <c r="D267" t="n">
+        <v>231.4453125</v>
+      </c>
+      <c r="E267" t="n">
+        <v>168.9453125</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="8" t="s"/>
+      <c r="B271" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="n">
+        <v>21.484375</v>
+      </c>
+      <c r="C272" t="n">
+        <v>31.7851649928569</v>
+      </c>
+      <c r="D272" t="n">
+        <v>164.0625</v>
+      </c>
+      <c r="E272" t="n">
+        <v>38.0859375</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" t="n">
+        <v>16.6015625</v>
+      </c>
+      <c r="C273" t="n">
+        <v>42.75765277122855</v>
+      </c>
+      <c r="D273" t="n">
+        <v>263.671875</v>
+      </c>
+      <c r="E273" t="n">
+        <v>65.4296875</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274" t="n">
+        <v>24.4140625</v>
+      </c>
+      <c r="C274" t="n">
+        <v>39.21088129529959</v>
+      </c>
+      <c r="D274" t="n">
+        <v>89.84375</v>
+      </c>
+      <c r="E274" t="n">
+        <v>55.6640625</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275" t="n">
+        <v>24.4140625</v>
+      </c>
+      <c r="C275" t="n">
+        <v>12.9758407824063</v>
+      </c>
+      <c r="D275" t="n">
+        <v>111.328125</v>
+      </c>
+      <c r="E275" t="n">
+        <v>65.4296875</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B276" t="n">
+        <v>49.8046875</v>
+      </c>
+      <c r="C276" t="n">
+        <v>99.73092112197736</v>
+      </c>
+      <c r="D276" t="n">
+        <v>287.109375</v>
+      </c>
+      <c r="E276" t="n">
+        <v>151.3671875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B277" t="n">
+        <v>49.8046875</v>
+      </c>
+      <c r="C277" t="n">
+        <v>90.29852038552849</v>
+      </c>
+      <c r="D277" t="n">
+        <v>291.015625</v>
+      </c>
+      <c r="E277" t="n">
+        <v>143.5546875</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" t="n">
+        <v>36.1328125</v>
+      </c>
+      <c r="C278" t="n">
+        <v>64.84651128641784</v>
+      </c>
+      <c r="D278" t="n">
+        <v>204.1015625</v>
+      </c>
+      <c r="E278" t="n">
+        <v>109.375</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" t="n">
+        <v>24.4140625</v>
+      </c>
+      <c r="C279" t="n">
+        <v>28.62330082026709</v>
+      </c>
+      <c r="D279" t="n">
+        <v>218.75</v>
+      </c>
+      <c r="E279" t="n">
+        <v>154.296875</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="8" t="s"/>
+      <c r="B283" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" t="n">
+        <v>22.4609375</v>
+      </c>
+      <c r="C284" t="n">
+        <v>90.93489750758835</v>
+      </c>
+      <c r="D284" t="n">
+        <v>185.546875</v>
+      </c>
+      <c r="E284" t="n">
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" t="n">
+        <v>43.9453125</v>
+      </c>
+      <c r="C285" t="n">
+        <v>77.78150982544462</v>
+      </c>
+      <c r="D285" t="n">
+        <v>125</v>
+      </c>
+      <c r="E285" t="n">
+        <v>56.640625</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" t="n">
+        <v>87.890625</v>
+      </c>
+      <c r="C286" t="n">
+        <v>87.11939441452962</v>
+      </c>
+      <c r="D286" t="n">
+        <v>150.390625</v>
+      </c>
+      <c r="E286" t="n">
+        <v>79.1015625</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B287" t="n">
+        <v>42.96875</v>
+      </c>
+      <c r="C287" t="n">
+        <v>58.49075385781064</v>
+      </c>
+      <c r="D287" t="n">
+        <v>78.125</v>
+      </c>
+      <c r="E287" t="n">
+        <v>59.5703125</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B288" t="n">
+        <v>98.6328125</v>
+      </c>
+      <c r="C288" t="n">
+        <v>85.74835163764472</v>
+      </c>
+      <c r="D288" t="n">
+        <v>124.0234375</v>
+      </c>
+      <c r="E288" t="n">
+        <v>104.4921875</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" t="n">
+        <v>41.015625</v>
+      </c>
+      <c r="C289" t="n">
+        <v>64.61993837269254</v>
+      </c>
+      <c r="D289" t="n">
+        <v>101.5625</v>
+      </c>
+      <c r="E289" t="n">
+        <v>65.4296875</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" t="n">
+        <v>39.0625</v>
+      </c>
+      <c r="C290" t="n">
+        <v>65.81101759579178</v>
+      </c>
+      <c r="D290" t="n">
+        <v>94.7265625</v>
+      </c>
+      <c r="E290" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" t="n">
+        <v>34.1796875</v>
+      </c>
+      <c r="C291" t="n">
+        <v>50.36624332215484</v>
+      </c>
+      <c r="D291" t="n">
+        <v>107.421875</v>
+      </c>
+      <c r="E291" t="n">
+        <v>65.4296875</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="8" t="s"/>
+      <c r="B295" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" t="n">
+        <v>21.484375</v>
+      </c>
+      <c r="C296" t="n">
+        <v>49.76910079593318</v>
+      </c>
+      <c r="D296" t="n">
+        <v>139.6484375</v>
+      </c>
+      <c r="E296" t="n">
+        <v>43.9453125</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" t="n">
+        <v>21.484375</v>
+      </c>
+      <c r="C297" t="n">
+        <v>91.54966634295772</v>
+      </c>
+      <c r="D297" t="n">
+        <v>308.59375</v>
+      </c>
+      <c r="E297" t="n">
+        <v>69.3359375</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298" t="n">
+        <v>19.53125</v>
+      </c>
+      <c r="C298" t="n">
+        <v>54.62093248579478</v>
+      </c>
+      <c r="D298" t="n">
+        <v>107.421875</v>
+      </c>
+      <c r="E298" t="n">
+        <v>56.640625</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" t="n">
+        <v>33.203125</v>
+      </c>
+      <c r="C299" t="n">
+        <v>58.69965939906539</v>
+      </c>
+      <c r="D299" t="n">
+        <v>113.28125</v>
+      </c>
+      <c r="E299" t="n">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B300" t="n">
+        <v>43.9453125</v>
+      </c>
+      <c r="C300" t="n">
+        <v>84.50496202954767</v>
+      </c>
+      <c r="D300" t="n">
+        <v>134.765625</v>
+      </c>
+      <c r="E300" t="n">
+        <v>100.5859375</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" t="n">
+        <v>36.1328125</v>
+      </c>
+      <c r="C301" t="n">
+        <v>64.21227132172267</v>
+      </c>
+      <c r="D301" t="n">
+        <v>150.390625</v>
+      </c>
+      <c r="E301" t="n">
+        <v>109.375</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" t="n">
+        <v>33.203125</v>
+      </c>
+      <c r="C302" t="n">
+        <v>58.18155193819712</v>
+      </c>
+      <c r="D302" t="n">
+        <v>109.375</v>
+      </c>
+      <c r="E302" t="n">
+        <v>75.1953125</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" t="n">
+        <v>25.390625</v>
+      </c>
+      <c r="C303" t="n">
+        <v>106.4086238398511</v>
+      </c>
+      <c r="D303" t="n">
+        <v>243.1640625</v>
+      </c>
+      <c r="E303" t="n">
+        <v>122.0703125</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="8" t="s"/>
+      <c r="B307" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308" t="n">
+        <v>20.5078125</v>
+      </c>
+      <c r="C308" t="n">
+        <v>54.2173867582438</v>
+      </c>
+      <c r="D308" t="n">
+        <v>171.875</v>
+      </c>
+      <c r="E308" t="n">
+        <v>73.2421875</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B309" t="n">
+        <v>20.5078125</v>
+      </c>
+      <c r="C309" t="n">
+        <v>44.16857266645916</v>
+      </c>
+      <c r="D309" t="n">
+        <v>181.640625</v>
+      </c>
+      <c r="E309" t="n">
+        <v>75.1953125</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310" t="n">
+        <v>21.484375</v>
+      </c>
+      <c r="C310" t="n">
+        <v>53.8353825301331</v>
+      </c>
+      <c r="D310" t="n">
+        <v>130.859375</v>
+      </c>
+      <c r="E310" t="n">
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311" t="n">
+        <v>39.0625</v>
+      </c>
+      <c r="C311" t="n">
+        <v>67.94676286767229</v>
+      </c>
+      <c r="D311" t="n">
+        <v>198.2421875</v>
+      </c>
+      <c r="E311" t="n">
+        <v>90.8203125</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B312" t="n">
+        <v>53.7109375</v>
+      </c>
+      <c r="C312" t="n">
+        <v>82.31261897632743</v>
+      </c>
+      <c r="D312" t="n">
+        <v>201.171875</v>
+      </c>
+      <c r="E312" t="n">
+        <v>112.3046875</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" t="n">
+        <v>45.8984375</v>
+      </c>
+      <c r="C313" t="n">
+        <v>63.65454944146812</v>
+      </c>
+      <c r="D313" t="n">
+        <v>139.6484375</v>
+      </c>
+      <c r="E313" t="n">
+        <v>98.6328125</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B314" t="n">
+        <v>41.015625</v>
+      </c>
+      <c r="C314" t="n">
+        <v>67.94449120339266</v>
+      </c>
+      <c r="D314" t="n">
+        <v>128.90625</v>
+      </c>
+      <c r="E314" t="n">
+        <v>95.703125</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B315" t="n">
+        <v>41.9921875</v>
+      </c>
+      <c r="C315" t="n">
+        <v>99.27980997274125</v>
+      </c>
+      <c r="D315" t="n">
+        <v>255.859375</v>
+      </c>
+      <c r="E315" t="n">
+        <v>180.6640625</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="8" t="s"/>
+      <c r="B319" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" t="n">
+        <v>22.4609375</v>
+      </c>
+      <c r="C320" t="n">
+        <v>32.16545066726444</v>
+      </c>
+      <c r="D320" t="n">
+        <v>159.1796875</v>
+      </c>
+      <c r="E320" t="n">
+        <v>38.0859375</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321" t="n">
+        <v>16.6015625</v>
+      </c>
+      <c r="C321" t="n">
+        <v>37.9405150681819</v>
+      </c>
+      <c r="D321" t="n">
+        <v>197.265625</v>
+      </c>
+      <c r="E321" t="n">
+        <v>64.453125</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B322" t="n">
+        <v>22.4609375</v>
+      </c>
+      <c r="C322" t="n">
+        <v>40.71430712891318</v>
+      </c>
+      <c r="D322" t="n">
+        <v>89.84375</v>
+      </c>
+      <c r="E322" t="n">
+        <v>51.7578125</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B323" t="n">
+        <v>30.2734375</v>
+      </c>
+      <c r="C323" t="n">
+        <v>12.00838135090775</v>
+      </c>
+      <c r="D323" t="n">
+        <v>101.5625</v>
+      </c>
+      <c r="E323" t="n">
+        <v>58.59375</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B324" t="n">
+        <v>49.8046875</v>
+      </c>
+      <c r="C324" t="n">
+        <v>98.28300233432266</v>
+      </c>
+      <c r="D324" t="n">
+        <v>275.390625</v>
+      </c>
+      <c r="E324" t="n">
+        <v>142.578125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B325" t="n">
+        <v>49.8046875</v>
+      </c>
+      <c r="C325" t="n">
+        <v>56.95180082811994</v>
+      </c>
+      <c r="D325" t="n">
+        <v>291.015625</v>
+      </c>
+      <c r="E325" t="n">
+        <v>129.8828125</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" t="n">
+        <v>37.109375</v>
+      </c>
+      <c r="C326" t="n">
+        <v>70.9709296975695</v>
+      </c>
+      <c r="D326" t="n">
+        <v>225.5859375</v>
+      </c>
+      <c r="E326" t="n">
+        <v>108.3984375</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" t="n">
+        <v>25.390625</v>
+      </c>
+      <c r="C327" t="n">
+        <v>127.8695829374267</v>
+      </c>
+      <c r="D327" t="n">
+        <v>416.015625</v>
+      </c>
+      <c r="E327" t="n">
+        <v>214.84375</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="8" t="s"/>
+      <c r="B331" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" t="n">
+        <v>20.5078125</v>
+      </c>
+      <c r="C332" t="n">
+        <v>65.95234770081797</v>
+      </c>
+      <c r="D332" t="n">
+        <v>202.1484375</v>
+      </c>
+      <c r="E332" t="n">
+        <v>84.9609375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="C333" t="n">
+        <v>39.54939060918564</v>
+      </c>
+      <c r="D333" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="E333" t="n">
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" t="n">
+        <v>33.203125</v>
+      </c>
+      <c r="C334" t="n">
+        <v>56.75840314158169</v>
+      </c>
+      <c r="D334" t="n">
+        <v>104.4921875</v>
+      </c>
+      <c r="E334" t="n">
+        <v>60.546875</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B335" t="n">
+        <v>38.0859375</v>
+      </c>
+      <c r="C335" t="n">
+        <v>68.70497966297255</v>
+      </c>
+      <c r="D335" t="n">
+        <v>199.21875</v>
+      </c>
+      <c r="E335" t="n">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B336" t="n">
+        <v>44.921875</v>
+      </c>
+      <c r="C336" t="n">
+        <v>75.85580667920406</v>
+      </c>
+      <c r="D336" t="n">
+        <v>169.921875</v>
+      </c>
+      <c r="E336" t="n">
+        <v>111.328125</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B337" t="n">
+        <v>39.0625</v>
+      </c>
+      <c r="C337" t="n">
+        <v>72.07166646529912</v>
+      </c>
+      <c r="D337" t="n">
+        <v>153.3203125</v>
+      </c>
+      <c r="E337" t="n">
+        <v>99.609375</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B338" t="n">
+        <v>53.7109375</v>
+      </c>
+      <c r="C338" t="n">
+        <v>63.68395060499716</v>
+      </c>
+      <c r="D338" t="n">
+        <v>129.8828125</v>
+      </c>
+      <c r="E338" t="n">
+        <v>88.8671875</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C339" t="n">
+        <v>99.86052823766721</v>
+      </c>
+      <c r="D339" t="n">
+        <v>332.03125</v>
+      </c>
+      <c r="E339" t="n">
+        <v>162.109375</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="8" t="s"/>
+      <c r="B343" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B344" t="n">
+        <v>20.5078125</v>
+      </c>
+      <c r="C344" t="n">
+        <v>53.30574768740885</v>
+      </c>
+      <c r="D344" t="n">
+        <v>194.3359375</v>
+      </c>
+      <c r="E344" t="n">
+        <v>55.6640625</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B345" t="n">
+        <v>16.6015625</v>
+      </c>
+      <c r="C345" t="n">
+        <v>37.72211633346766</v>
+      </c>
+      <c r="D345" t="n">
+        <v>178.7109375</v>
+      </c>
+      <c r="E345" t="n">
+        <v>63.4765625</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" t="n">
+        <v>22.4609375</v>
+      </c>
+      <c r="C346" t="n">
+        <v>55.32539526927705</v>
+      </c>
+      <c r="D346" t="n">
+        <v>192.3828125</v>
+      </c>
+      <c r="E346" t="n">
+        <v>80.078125</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B347" t="n">
+        <v>23.4375</v>
+      </c>
+      <c r="C347" t="n">
+        <v>57.8400322666056</v>
+      </c>
+      <c r="D347" t="n">
+        <v>205.078125</v>
+      </c>
+      <c r="E347" t="n">
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348" t="n">
+        <v>49.8046875</v>
+      </c>
+      <c r="C348" t="n">
+        <v>80.3847381522213</v>
+      </c>
+      <c r="D348" t="n">
+        <v>225.5859375</v>
+      </c>
+      <c r="E348" t="n">
+        <v>116.2109375</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B349" t="n">
+        <v>32.2265625</v>
+      </c>
+      <c r="C349" t="n">
+        <v>72.03164336798199</v>
+      </c>
+      <c r="D349" t="n">
+        <v>197.265625</v>
+      </c>
+      <c r="E349" t="n">
+        <v>119.140625</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B350" t="n">
+        <v>38.0859375</v>
+      </c>
+      <c r="C350" t="n">
+        <v>78.88536636028789</v>
+      </c>
+      <c r="D350" t="n">
+        <v>201.171875</v>
+      </c>
+      <c r="E350" t="n">
+        <v>111.328125</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C351" t="n">
+        <v>90.28230687777194</v>
+      </c>
+      <c r="D351" t="n">
+        <v>302.734375</v>
+      </c>
+      <c r="E351" t="n">
+        <v>199.21875</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="8" t="s"/>
+      <c r="B355" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356" t="n">
+        <v>18.5546875</v>
+      </c>
+      <c r="C356" t="n">
+        <v>68.57122150773925</v>
+      </c>
+      <c r="D356" t="n">
+        <v>133.7890625</v>
+      </c>
+      <c r="E356" t="n">
+        <v>75.1953125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B357" t="n">
+        <v>22.4609375</v>
+      </c>
+      <c r="C357" t="n">
+        <v>31.29527192402039</v>
+      </c>
+      <c r="D357" t="n">
+        <v>68.359375</v>
+      </c>
+      <c r="E357" t="n">
+        <v>41.015625</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" t="n">
+        <v>37.109375</v>
+      </c>
+      <c r="C358" t="n">
+        <v>60.47009693642653</v>
+      </c>
+      <c r="D358" t="n">
+        <v>107.421875</v>
+      </c>
+      <c r="E358" t="n">
+        <v>76.171875</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B359" t="n">
+        <v>23.4375</v>
+      </c>
+      <c r="C359" t="n">
+        <v>101.3279428373209</v>
+      </c>
+      <c r="D359" t="n">
+        <v>256.8359375</v>
+      </c>
+      <c r="E359" t="n">
+        <v>99.609375</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B360" t="n">
+        <v>60.546875</v>
+      </c>
+      <c r="C360" t="n">
+        <v>89.53236650969019</v>
+      </c>
+      <c r="D360" t="n">
+        <v>202.1484375</v>
+      </c>
+      <c r="E360" t="n">
+        <v>102.5390625</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B361" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C361" t="n">
+        <v>78.7686386833274</v>
+      </c>
+      <c r="D361" t="n">
+        <v>153.3203125</v>
+      </c>
+      <c r="E361" t="n">
+        <v>92.7734375</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B362" t="n">
+        <v>38.0859375</v>
+      </c>
+      <c r="C362" t="n">
+        <v>60.38568272640413</v>
+      </c>
+      <c r="D362" t="n">
+        <v>127.9296875</v>
+      </c>
+      <c r="E362" t="n">
+        <v>91.796875</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B363" t="n">
+        <v>41.015625</v>
+      </c>
+      <c r="C363" t="n">
+        <v>53.44785959601106</v>
+      </c>
+      <c r="D363" t="n">
+        <v>193.359375</v>
+      </c>
+      <c r="E363" t="n">
+        <v>131.8359375</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_database/demo.xlsx
+++ b/Excel_database/demo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Gender</t>
   </si>
@@ -319,6 +319,21 @@
     <t>Correlation coeficient between each muscle and each COP direction - OneFootStanding_L_EC</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RA_L</t>
+  </si>
+  <si>
+    <t>Dominant Hand</t>
+  </si>
+  <si>
+    <t>Height(kg)</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
     <t>**Frequency analysis of EMG and COP</t>
   </si>
   <si>
@@ -332,6 +347,9 @@
   </si>
   <si>
     <t>80% Freq (Hz)</t>
+  </si>
+  <si>
+    <t>COP_Y</t>
   </si>
 </sst>
 </file>
@@ -356,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -389,12 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00000080"/>
-        <bgColor rgb="00000080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
       </patternFill>
@@ -412,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -423,7 +435,6 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -11114,7 +11125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E363"/>
+  <dimension ref="A1:N363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11122,65 +11133,100 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="8" t="s"/>
-      <c r="B259" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="8" t="s">
+      <c r="J258" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259" s="7" t="n"/>
+      <c r="B259" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J259" s="7" t="s"/>
+      <c r="K259" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L259" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M259" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N259" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B260" t="n">
@@ -11190,14 +11236,29 @@
         <v>45.24227049490499</v>
       </c>
       <c r="D260" t="n">
+        <v>73.2421875</v>
+      </c>
+      <c r="E260" t="n">
         <v>190.4296875</v>
       </c>
-      <c r="E260" t="n">
-        <v>73.2421875</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="8" t="s">
+      <c r="J260" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1.381479900550024</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1.114285714285714</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B261" t="n">
@@ -11207,14 +11268,29 @@
         <v>64.18225650561983</v>
       </c>
       <c r="D261" t="n">
+        <v>83.0078125</v>
+      </c>
+      <c r="E261" t="n">
         <v>248.046875</v>
       </c>
-      <c r="E261" t="n">
-        <v>83.0078125</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="8" t="s">
+      <c r="J261" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1.422389332320475</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B262" t="n">
@@ -11224,14 +11300,14 @@
         <v>48.1551870289768</v>
       </c>
       <c r="D262" t="n">
+        <v>73.2421875</v>
+      </c>
+      <c r="E262" t="n">
         <v>132.8125</v>
       </c>
-      <c r="E262" t="n">
-        <v>73.2421875</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="8" t="s">
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B263" t="n">
@@ -11241,14 +11317,14 @@
         <v>49.19686928752341</v>
       </c>
       <c r="D263" t="n">
+        <v>83.0078125</v>
+      </c>
+      <c r="E263" t="n">
         <v>163.0859375</v>
       </c>
-      <c r="E263" t="n">
-        <v>83.0078125</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="8" t="s">
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B264" t="n">
@@ -11258,14 +11334,14 @@
         <v>76.65626985108965</v>
       </c>
       <c r="D264" t="n">
+        <v>122.0703125</v>
+      </c>
+      <c r="E264" t="n">
         <v>192.3828125</v>
       </c>
-      <c r="E264" t="n">
-        <v>122.0703125</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="8" t="s">
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B265" t="n">
@@ -11275,14 +11351,14 @@
         <v>75.05119381491185</v>
       </c>
       <c r="D265" t="n">
+        <v>109.375</v>
+      </c>
+      <c r="E265" t="n">
         <v>242.1875</v>
       </c>
-      <c r="E265" t="n">
-        <v>109.375</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="8" t="s">
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B266" t="n">
@@ -11292,14 +11368,14 @@
         <v>69.36376189960872</v>
       </c>
       <c r="D266" t="n">
+        <v>101.5625</v>
+      </c>
+      <c r="E266" t="n">
         <v>143.5546875</v>
       </c>
-      <c r="E266" t="n">
-        <v>101.5625</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="8" t="s">
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B267" t="n">
@@ -11309,34 +11385,50 @@
         <v>88.27619208716787</v>
       </c>
       <c r="D267" t="n">
+        <v>168.9453125</v>
+      </c>
+      <c r="E267" t="n">
         <v>231.4453125</v>
       </c>
-      <c r="E267" t="n">
-        <v>168.9453125</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="8" t="s"/>
-      <c r="B271" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="8" t="s">
+      <c r="J270" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271" s="7" t="n"/>
+      <c r="B271" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J271" s="7" t="s"/>
+      <c r="K271" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L271" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M271" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N271" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B272" t="n">
@@ -11346,14 +11438,29 @@
         <v>31.7851649928569</v>
       </c>
       <c r="D272" t="n">
+        <v>38.0859375</v>
+      </c>
+      <c r="E272" t="n">
         <v>164.0625</v>
       </c>
-      <c r="E272" t="n">
-        <v>38.0859375</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="8" t="s">
+      <c r="J272" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1.424786822623519</v>
+      </c>
+      <c r="M272" t="n">
+        <v>2</v>
+      </c>
+      <c r="N272" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B273" t="n">
@@ -11363,14 +11470,29 @@
         <v>42.75765277122855</v>
       </c>
       <c r="D273" t="n">
+        <v>65.4296875</v>
+      </c>
+      <c r="E273" t="n">
         <v>263.671875</v>
       </c>
-      <c r="E273" t="n">
-        <v>65.4296875</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="8" t="s">
+      <c r="J273" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1.340968719249869</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B274" t="n">
@@ -11380,14 +11502,14 @@
         <v>39.21088129529959</v>
       </c>
       <c r="D274" t="n">
+        <v>55.6640625</v>
+      </c>
+      <c r="E274" t="n">
         <v>89.84375</v>
       </c>
-      <c r="E274" t="n">
-        <v>55.6640625</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="8" t="s">
+    </row>
+    <row r="275" spans="1:14">
+      <c r="A275" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B275" t="n">
@@ -11397,14 +11519,14 @@
         <v>12.9758407824063</v>
       </c>
       <c r="D275" t="n">
+        <v>65.4296875</v>
+      </c>
+      <c r="E275" t="n">
         <v>111.328125</v>
       </c>
-      <c r="E275" t="n">
-        <v>65.4296875</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="8" t="s">
+    </row>
+    <row r="276" spans="1:14">
+      <c r="A276" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B276" t="n">
@@ -11414,14 +11536,14 @@
         <v>99.73092112197736</v>
       </c>
       <c r="D276" t="n">
+        <v>151.3671875</v>
+      </c>
+      <c r="E276" t="n">
         <v>287.109375</v>
       </c>
-      <c r="E276" t="n">
-        <v>151.3671875</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="8" t="s">
+    </row>
+    <row r="277" spans="1:14">
+      <c r="A277" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B277" t="n">
@@ -11431,14 +11553,14 @@
         <v>90.29852038552849</v>
       </c>
       <c r="D277" t="n">
+        <v>143.5546875</v>
+      </c>
+      <c r="E277" t="n">
         <v>291.015625</v>
       </c>
-      <c r="E277" t="n">
-        <v>143.5546875</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="8" t="s">
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B278" t="n">
@@ -11448,14 +11570,14 @@
         <v>64.84651128641784</v>
       </c>
       <c r="D278" t="n">
+        <v>109.375</v>
+      </c>
+      <c r="E278" t="n">
         <v>204.1015625</v>
       </c>
-      <c r="E278" t="n">
-        <v>109.375</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="8" t="s">
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B279" t="n">
@@ -11465,34 +11587,50 @@
         <v>28.62330082026709</v>
       </c>
       <c r="D279" t="n">
+        <v>154.296875</v>
+      </c>
+      <c r="E279" t="n">
         <v>218.75</v>
       </c>
-      <c r="E279" t="n">
-        <v>154.296875</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="8" t="s"/>
-      <c r="B283" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E283" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="8" t="s">
+      <c r="J282" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283" s="7" t="n"/>
+      <c r="B283" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J283" s="7" t="s"/>
+      <c r="K283" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L283" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M283" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N283" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B284" t="n">
@@ -11502,14 +11640,29 @@
         <v>90.93489750758835</v>
       </c>
       <c r="D284" t="n">
+        <v>70.3125</v>
+      </c>
+      <c r="E284" t="n">
         <v>185.546875</v>
       </c>
-      <c r="E284" t="n">
-        <v>70.3125</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="8" t="s">
+      <c r="J284" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1.119599029033109</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B285" t="n">
@@ -11519,14 +11672,29 @@
         <v>77.78150982544462</v>
       </c>
       <c r="D285" t="n">
+        <v>56.640625</v>
+      </c>
+      <c r="E285" t="n">
         <v>125</v>
       </c>
-      <c r="E285" t="n">
-        <v>56.640625</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="8" t="s">
+      <c r="J285" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.5003996554881637</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="N285" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B286" t="n">
@@ -11536,14 +11704,14 @@
         <v>87.11939441452962</v>
       </c>
       <c r="D286" t="n">
+        <v>79.1015625</v>
+      </c>
+      <c r="E286" t="n">
         <v>150.390625</v>
       </c>
-      <c r="E286" t="n">
-        <v>79.1015625</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="8" t="s">
+    </row>
+    <row r="287" spans="1:14">
+      <c r="A287" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B287" t="n">
@@ -11553,14 +11721,14 @@
         <v>58.49075385781064</v>
       </c>
       <c r="D287" t="n">
+        <v>59.5703125</v>
+      </c>
+      <c r="E287" t="n">
         <v>78.125</v>
       </c>
-      <c r="E287" t="n">
-        <v>59.5703125</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="8" t="s">
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B288" t="n">
@@ -11570,14 +11738,14 @@
         <v>85.74835163764472</v>
       </c>
       <c r="D288" t="n">
+        <v>104.4921875</v>
+      </c>
+      <c r="E288" t="n">
         <v>124.0234375</v>
       </c>
-      <c r="E288" t="n">
-        <v>104.4921875</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="8" t="s">
+    </row>
+    <row r="289" spans="1:14">
+      <c r="A289" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B289" t="n">
@@ -11587,14 +11755,14 @@
         <v>64.61993837269254</v>
       </c>
       <c r="D289" t="n">
+        <v>65.4296875</v>
+      </c>
+      <c r="E289" t="n">
         <v>101.5625</v>
       </c>
-      <c r="E289" t="n">
-        <v>65.4296875</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="8" t="s">
+    </row>
+    <row r="290" spans="1:14">
+      <c r="A290" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B290" t="n">
@@ -11604,14 +11772,14 @@
         <v>65.81101759579178</v>
       </c>
       <c r="D290" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E290" t="n">
         <v>94.7265625</v>
       </c>
-      <c r="E290" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="8" t="s">
+    </row>
+    <row r="291" spans="1:14">
+      <c r="A291" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B291" t="n">
@@ -11621,34 +11789,50 @@
         <v>50.36624332215484</v>
       </c>
       <c r="D291" t="n">
+        <v>65.4296875</v>
+      </c>
+      <c r="E291" t="n">
         <v>107.421875</v>
       </c>
-      <c r="E291" t="n">
-        <v>65.4296875</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="8" t="s"/>
-      <c r="B295" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E295" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="8" t="s">
+      <c r="J294" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295" s="7" t="n"/>
+      <c r="B295" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J295" s="7" t="s"/>
+      <c r="K295" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L295" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M295" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N295" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B296" t="n">
@@ -11658,14 +11842,29 @@
         <v>49.76910079593318</v>
       </c>
       <c r="D296" t="n">
+        <v>43.9453125</v>
+      </c>
+      <c r="E296" t="n">
         <v>139.6484375</v>
       </c>
-      <c r="E296" t="n">
-        <v>43.9453125</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="8" t="s">
+      <c r="J296" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.9397568547544476</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B297" t="n">
@@ -11675,14 +11874,29 @@
         <v>91.54966634295772</v>
       </c>
       <c r="D297" t="n">
+        <v>69.3359375</v>
+      </c>
+      <c r="E297" t="n">
         <v>308.59375</v>
       </c>
-      <c r="E297" t="n">
-        <v>69.3359375</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="8" t="s">
+      <c r="J297" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.7382646129451159</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B298" t="n">
@@ -11692,14 +11906,14 @@
         <v>54.62093248579478</v>
       </c>
       <c r="D298" t="n">
+        <v>56.640625</v>
+      </c>
+      <c r="E298" t="n">
         <v>107.421875</v>
       </c>
-      <c r="E298" t="n">
-        <v>56.640625</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="8" t="s">
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B299" t="n">
@@ -11709,14 +11923,14 @@
         <v>58.69965939906539</v>
       </c>
       <c r="D299" t="n">
+        <v>78.125</v>
+      </c>
+      <c r="E299" t="n">
         <v>113.28125</v>
       </c>
-      <c r="E299" t="n">
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="8" t="s">
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B300" t="n">
@@ -11726,14 +11940,14 @@
         <v>84.50496202954767</v>
       </c>
       <c r="D300" t="n">
+        <v>100.5859375</v>
+      </c>
+      <c r="E300" t="n">
         <v>134.765625</v>
       </c>
-      <c r="E300" t="n">
-        <v>100.5859375</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="8" t="s">
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B301" t="n">
@@ -11743,14 +11957,14 @@
         <v>64.21227132172267</v>
       </c>
       <c r="D301" t="n">
+        <v>109.375</v>
+      </c>
+      <c r="E301" t="n">
         <v>150.390625</v>
       </c>
-      <c r="E301" t="n">
-        <v>109.375</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="8" t="s">
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B302" t="n">
@@ -11760,14 +11974,14 @@
         <v>58.18155193819712</v>
       </c>
       <c r="D302" t="n">
+        <v>75.1953125</v>
+      </c>
+      <c r="E302" t="n">
         <v>109.375</v>
       </c>
-      <c r="E302" t="n">
-        <v>75.1953125</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="8" t="s">
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B303" t="n">
@@ -11777,34 +11991,50 @@
         <v>106.4086238398511</v>
       </c>
       <c r="D303" t="n">
+        <v>122.0703125</v>
+      </c>
+      <c r="E303" t="n">
         <v>243.1640625</v>
       </c>
-      <c r="E303" t="n">
-        <v>122.0703125</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="8" t="s"/>
-      <c r="B307" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C307" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E307" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="8" t="s">
+      <c r="J306" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
+      <c r="A307" s="7" t="n"/>
+      <c r="B307" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J307" s="7" t="s"/>
+      <c r="K307" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L307" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M307" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N307" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B308" t="n">
@@ -11814,14 +12044,29 @@
         <v>54.2173867582438</v>
       </c>
       <c r="D308" t="n">
+        <v>73.2421875</v>
+      </c>
+      <c r="E308" t="n">
         <v>171.875</v>
       </c>
-      <c r="E308" t="n">
-        <v>73.2421875</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="8" t="s">
+      <c r="J308" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L308" t="n">
+        <v>-2.71249574308061</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B309" t="n">
@@ -11831,14 +12076,29 @@
         <v>44.16857266645916</v>
       </c>
       <c r="D309" t="n">
+        <v>75.1953125</v>
+      </c>
+      <c r="E309" t="n">
         <v>181.640625</v>
       </c>
-      <c r="E309" t="n">
-        <v>75.1953125</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="8" t="s">
+      <c r="J309" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L309" t="n">
+        <v>-3.460222282369043</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B310" t="n">
@@ -11848,14 +12108,14 @@
         <v>53.8353825301331</v>
       </c>
       <c r="D310" t="n">
+        <v>70.3125</v>
+      </c>
+      <c r="E310" t="n">
         <v>130.859375</v>
       </c>
-      <c r="E310" t="n">
-        <v>70.3125</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="8" t="s">
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B311" t="n">
@@ -11865,14 +12125,14 @@
         <v>67.94676286767229</v>
       </c>
       <c r="D311" t="n">
+        <v>90.8203125</v>
+      </c>
+      <c r="E311" t="n">
         <v>198.2421875</v>
       </c>
-      <c r="E311" t="n">
-        <v>90.8203125</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="8" t="s">
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B312" t="n">
@@ -11882,14 +12142,14 @@
         <v>82.31261897632743</v>
       </c>
       <c r="D312" t="n">
+        <v>112.3046875</v>
+      </c>
+      <c r="E312" t="n">
         <v>201.171875</v>
       </c>
-      <c r="E312" t="n">
-        <v>112.3046875</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="8" t="s">
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B313" t="n">
@@ -11899,14 +12159,14 @@
         <v>63.65454944146812</v>
       </c>
       <c r="D313" t="n">
+        <v>98.6328125</v>
+      </c>
+      <c r="E313" t="n">
         <v>139.6484375</v>
       </c>
-      <c r="E313" t="n">
-        <v>98.6328125</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="8" t="s">
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B314" t="n">
@@ -11916,14 +12176,14 @@
         <v>67.94449120339266</v>
       </c>
       <c r="D314" t="n">
+        <v>95.703125</v>
+      </c>
+      <c r="E314" t="n">
         <v>128.90625</v>
       </c>
-      <c r="E314" t="n">
-        <v>95.703125</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="8" t="s">
+    </row>
+    <row r="315" spans="1:14">
+      <c r="A315" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B315" t="n">
@@ -11933,34 +12193,50 @@
         <v>99.27980997274125</v>
       </c>
       <c r="D315" t="n">
+        <v>180.6640625</v>
+      </c>
+      <c r="E315" t="n">
         <v>255.859375</v>
       </c>
-      <c r="E315" t="n">
-        <v>180.6640625</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="8" t="s"/>
-      <c r="B319" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C319" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D319" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E319" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="8" t="s">
+      <c r="J318" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" s="7" t="n"/>
+      <c r="B319" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J319" s="7" t="s"/>
+      <c r="K319" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L319" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M319" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N319" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
+      <c r="A320" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B320" t="n">
@@ -11970,14 +12246,29 @@
         <v>32.16545066726444</v>
       </c>
       <c r="D320" t="n">
+        <v>38.0859375</v>
+      </c>
+      <c r="E320" t="n">
         <v>159.1796875</v>
       </c>
-      <c r="E320" t="n">
-        <v>38.0859375</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="8" t="s">
+      <c r="J320" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L320" t="n">
+        <v>-3.947220213197359</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
+      <c r="A321" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B321" t="n">
@@ -11987,14 +12278,29 @@
         <v>37.9405150681819</v>
       </c>
       <c r="D321" t="n">
+        <v>64.453125</v>
+      </c>
+      <c r="E321" t="n">
         <v>197.265625</v>
       </c>
-      <c r="E321" t="n">
-        <v>64.453125</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="8" t="s">
+      <c r="J321" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1.287571665940001</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
+      <c r="A322" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B322" t="n">
@@ -12004,14 +12310,14 @@
         <v>40.71430712891318</v>
       </c>
       <c r="D322" t="n">
+        <v>51.7578125</v>
+      </c>
+      <c r="E322" t="n">
         <v>89.84375</v>
       </c>
-      <c r="E322" t="n">
-        <v>51.7578125</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="8" t="s">
+    </row>
+    <row r="323" spans="1:14">
+      <c r="A323" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B323" t="n">
@@ -12021,14 +12327,14 @@
         <v>12.00838135090775</v>
       </c>
       <c r="D323" t="n">
+        <v>58.59375</v>
+      </c>
+      <c r="E323" t="n">
         <v>101.5625</v>
       </c>
-      <c r="E323" t="n">
-        <v>58.59375</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="8" t="s">
+    </row>
+    <row r="324" spans="1:14">
+      <c r="A324" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B324" t="n">
@@ -12038,14 +12344,14 @@
         <v>98.28300233432266</v>
       </c>
       <c r="D324" t="n">
+        <v>142.578125</v>
+      </c>
+      <c r="E324" t="n">
         <v>275.390625</v>
       </c>
-      <c r="E324" t="n">
-        <v>142.578125</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="8" t="s">
+    </row>
+    <row r="325" spans="1:14">
+      <c r="A325" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B325" t="n">
@@ -12055,14 +12361,14 @@
         <v>56.95180082811994</v>
       </c>
       <c r="D325" t="n">
+        <v>129.8828125</v>
+      </c>
+      <c r="E325" t="n">
         <v>291.015625</v>
       </c>
-      <c r="E325" t="n">
-        <v>129.8828125</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="8" t="s">
+    </row>
+    <row r="326" spans="1:14">
+      <c r="A326" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B326" t="n">
@@ -12072,14 +12378,14 @@
         <v>70.9709296975695</v>
       </c>
       <c r="D326" t="n">
+        <v>108.3984375</v>
+      </c>
+      <c r="E326" t="n">
         <v>225.5859375</v>
       </c>
-      <c r="E326" t="n">
-        <v>108.3984375</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="8" t="s">
+    </row>
+    <row r="327" spans="1:14">
+      <c r="A327" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B327" t="n">
@@ -12089,34 +12395,50 @@
         <v>127.8695829374267</v>
       </c>
       <c r="D327" t="n">
+        <v>214.84375</v>
+      </c>
+      <c r="E327" t="n">
         <v>416.015625</v>
       </c>
-      <c r="E327" t="n">
-        <v>214.84375</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="8" t="s"/>
-      <c r="B331" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D331" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E331" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="8" t="s">
+      <c r="J330" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
+      <c r="A331" s="7" t="n"/>
+      <c r="B331" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J331" s="7" t="s"/>
+      <c r="K331" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L331" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M331" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N331" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
+      <c r="A332" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B332" t="n">
@@ -12126,14 +12448,29 @@
         <v>65.95234770081797</v>
       </c>
       <c r="D332" t="n">
+        <v>84.9609375</v>
+      </c>
+      <c r="E332" t="n">
         <v>202.1484375</v>
       </c>
-      <c r="E332" t="n">
-        <v>84.9609375</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="8" t="s">
+      <c r="J332" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0.5363113858225841</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
+      <c r="A333" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B333" t="n">
@@ -12143,14 +12480,29 @@
         <v>39.54939060918564</v>
       </c>
       <c r="D333" t="n">
+        <v>70.3125</v>
+      </c>
+      <c r="E333" t="n">
         <v>156.25</v>
       </c>
-      <c r="E333" t="n">
-        <v>70.3125</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="8" t="s">
+      <c r="J333" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.3000994924415367</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
+      <c r="A334" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B334" t="n">
@@ -12160,14 +12512,14 @@
         <v>56.75840314158169</v>
       </c>
       <c r="D334" t="n">
+        <v>60.546875</v>
+      </c>
+      <c r="E334" t="n">
         <v>104.4921875</v>
       </c>
-      <c r="E334" t="n">
-        <v>60.546875</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="8" t="s">
+    </row>
+    <row r="335" spans="1:14">
+      <c r="A335" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B335" t="n">
@@ -12177,14 +12529,14 @@
         <v>68.70497966297255</v>
       </c>
       <c r="D335" t="n">
+        <v>78.125</v>
+      </c>
+      <c r="E335" t="n">
         <v>199.21875</v>
       </c>
-      <c r="E335" t="n">
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="8" t="s">
+    </row>
+    <row r="336" spans="1:14">
+      <c r="A336" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B336" t="n">
@@ -12194,14 +12546,14 @@
         <v>75.85580667920406</v>
       </c>
       <c r="D336" t="n">
+        <v>111.328125</v>
+      </c>
+      <c r="E336" t="n">
         <v>169.921875</v>
       </c>
-      <c r="E336" t="n">
-        <v>111.328125</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="8" t="s">
+    </row>
+    <row r="337" spans="1:14">
+      <c r="A337" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B337" t="n">
@@ -12211,14 +12563,14 @@
         <v>72.07166646529912</v>
       </c>
       <c r="D337" t="n">
+        <v>99.609375</v>
+      </c>
+      <c r="E337" t="n">
         <v>153.3203125</v>
       </c>
-      <c r="E337" t="n">
-        <v>99.609375</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="8" t="s">
+    </row>
+    <row r="338" spans="1:14">
+      <c r="A338" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B338" t="n">
@@ -12228,14 +12580,14 @@
         <v>63.68395060499716</v>
       </c>
       <c r="D338" t="n">
+        <v>88.8671875</v>
+      </c>
+      <c r="E338" t="n">
         <v>129.8828125</v>
       </c>
-      <c r="E338" t="n">
-        <v>88.8671875</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="8" t="s">
+    </row>
+    <row r="339" spans="1:14">
+      <c r="A339" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B339" t="n">
@@ -12245,34 +12597,50 @@
         <v>99.86052823766721</v>
       </c>
       <c r="D339" t="n">
+        <v>162.109375</v>
+      </c>
+      <c r="E339" t="n">
         <v>332.03125</v>
       </c>
-      <c r="E339" t="n">
-        <v>162.109375</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="8" t="s"/>
-      <c r="B343" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D343" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E343" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="8" t="s">
+      <c r="J342" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
+      <c r="A343" s="7" t="n"/>
+      <c r="B343" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E343" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J343" s="7" t="s"/>
+      <c r="K343" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L343" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M343" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N343" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
+      <c r="A344" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B344" t="n">
@@ -12282,14 +12650,29 @@
         <v>53.30574768740885</v>
       </c>
       <c r="D344" t="n">
+        <v>55.6640625</v>
+      </c>
+      <c r="E344" t="n">
         <v>194.3359375</v>
       </c>
-      <c r="E344" t="n">
-        <v>55.6640625</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="8" t="s">
+      <c r="J344" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.02898522102351823</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
+      <c r="A345" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B345" t="n">
@@ -12299,14 +12682,29 @@
         <v>37.72211633346766</v>
       </c>
       <c r="D345" t="n">
+        <v>63.4765625</v>
+      </c>
+      <c r="E345" t="n">
         <v>178.7109375</v>
       </c>
-      <c r="E345" t="n">
-        <v>63.4765625</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="8" t="s">
+      <c r="J345" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L345" t="n">
+        <v>-3.261074733386663</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
+      <c r="A346" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B346" t="n">
@@ -12316,14 +12714,14 @@
         <v>55.32539526927705</v>
       </c>
       <c r="D346" t="n">
+        <v>80.078125</v>
+      </c>
+      <c r="E346" t="n">
         <v>192.3828125</v>
       </c>
-      <c r="E346" t="n">
-        <v>80.078125</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="8" t="s">
+    </row>
+    <row r="347" spans="1:14">
+      <c r="A347" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B347" t="n">
@@ -12333,14 +12731,14 @@
         <v>57.8400322666056</v>
       </c>
       <c r="D347" t="n">
+        <v>70.3125</v>
+      </c>
+      <c r="E347" t="n">
         <v>205.078125</v>
       </c>
-      <c r="E347" t="n">
-        <v>70.3125</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="8" t="s">
+    </row>
+    <row r="348" spans="1:14">
+      <c r="A348" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B348" t="n">
@@ -12350,14 +12748,14 @@
         <v>80.3847381522213</v>
       </c>
       <c r="D348" t="n">
+        <v>116.2109375</v>
+      </c>
+      <c r="E348" t="n">
         <v>225.5859375</v>
       </c>
-      <c r="E348" t="n">
-        <v>116.2109375</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="8" t="s">
+    </row>
+    <row r="349" spans="1:14">
+      <c r="A349" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B349" t="n">
@@ -12367,14 +12765,14 @@
         <v>72.03164336798199</v>
       </c>
       <c r="D349" t="n">
+        <v>119.140625</v>
+      </c>
+      <c r="E349" t="n">
         <v>197.265625</v>
       </c>
-      <c r="E349" t="n">
-        <v>119.140625</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="8" t="s">
+    </row>
+    <row r="350" spans="1:14">
+      <c r="A350" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B350" t="n">
@@ -12384,14 +12782,14 @@
         <v>78.88536636028789</v>
       </c>
       <c r="D350" t="n">
+        <v>111.328125</v>
+      </c>
+      <c r="E350" t="n">
         <v>201.171875</v>
       </c>
-      <c r="E350" t="n">
-        <v>111.328125</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="8" t="s">
+    </row>
+    <row r="351" spans="1:14">
+      <c r="A351" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B351" t="n">
@@ -12401,34 +12799,50 @@
         <v>90.28230687777194</v>
       </c>
       <c r="D351" t="n">
+        <v>199.21875</v>
+      </c>
+      <c r="E351" t="n">
         <v>302.734375</v>
       </c>
-      <c r="E351" t="n">
-        <v>199.21875</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="8" t="s"/>
-      <c r="B355" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E355" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="8" t="s">
+      <c r="J354" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
+      <c r="A355" s="7" t="n"/>
+      <c r="B355" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D355" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E355" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J355" s="7" t="s"/>
+      <c r="K355" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L355" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M355" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N355" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
+      <c r="A356" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B356" t="n">
@@ -12438,14 +12852,29 @@
         <v>68.57122150773925</v>
       </c>
       <c r="D356" t="n">
+        <v>75.1953125</v>
+      </c>
+      <c r="E356" t="n">
         <v>133.7890625</v>
       </c>
-      <c r="E356" t="n">
-        <v>75.1953125</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="8" t="s">
+      <c r="J356" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.4753448686532505</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
+      <c r="A357" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B357" t="n">
@@ -12455,14 +12884,29 @@
         <v>31.29527192402039</v>
       </c>
       <c r="D357" t="n">
+        <v>41.015625</v>
+      </c>
+      <c r="E357" t="n">
         <v>68.359375</v>
       </c>
-      <c r="E357" t="n">
-        <v>41.015625</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="8" t="s">
+      <c r="J357" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.5625276849009486</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
+      <c r="A358" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B358" t="n">
@@ -12472,14 +12916,14 @@
         <v>60.47009693642653</v>
       </c>
       <c r="D358" t="n">
+        <v>76.171875</v>
+      </c>
+      <c r="E358" t="n">
         <v>107.421875</v>
       </c>
-      <c r="E358" t="n">
-        <v>76.171875</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="8" t="s">
+    </row>
+    <row r="359" spans="1:14">
+      <c r="A359" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B359" t="n">
@@ -12489,14 +12933,14 @@
         <v>101.3279428373209</v>
       </c>
       <c r="D359" t="n">
+        <v>99.609375</v>
+      </c>
+      <c r="E359" t="n">
         <v>256.8359375</v>
       </c>
-      <c r="E359" t="n">
-        <v>99.609375</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="8" t="s">
+    </row>
+    <row r="360" spans="1:14">
+      <c r="A360" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B360" t="n">
@@ -12506,14 +12950,14 @@
         <v>89.53236650969019</v>
       </c>
       <c r="D360" t="n">
+        <v>102.5390625</v>
+      </c>
+      <c r="E360" t="n">
         <v>202.1484375</v>
       </c>
-      <c r="E360" t="n">
-        <v>102.5390625</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="8" t="s">
+    </row>
+    <row r="361" spans="1:14">
+      <c r="A361" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B361" t="n">
@@ -12523,14 +12967,14 @@
         <v>78.7686386833274</v>
       </c>
       <c r="D361" t="n">
+        <v>92.7734375</v>
+      </c>
+      <c r="E361" t="n">
         <v>153.3203125</v>
       </c>
-      <c r="E361" t="n">
-        <v>92.7734375</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="8" t="s">
+    </row>
+    <row r="362" spans="1:14">
+      <c r="A362" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B362" t="n">
@@ -12540,14 +12984,14 @@
         <v>60.38568272640413</v>
       </c>
       <c r="D362" t="n">
+        <v>91.796875</v>
+      </c>
+      <c r="E362" t="n">
         <v>127.9296875</v>
       </c>
-      <c r="E362" t="n">
-        <v>91.796875</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="8" t="s">
+    </row>
+    <row r="363" spans="1:14">
+      <c r="A363" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B363" t="n">
@@ -12557,10 +13001,10 @@
         <v>53.44785959601106</v>
       </c>
       <c r="D363" t="n">
+        <v>131.8359375</v>
+      </c>
+      <c r="E363" t="n">
         <v>193.359375</v>
-      </c>
-      <c r="E363" t="n">
-        <v>131.8359375</v>
       </c>
     </row>
   </sheetData>
